--- a/Z80ESP/Z80ESP_Commands.xlsx
+++ b/Z80ESP/Z80ESP_Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\nhyodyne\Z80ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFC22754-D435-4C48-986C-F1483EE4480F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A954F91-664F-465B-947D-9C17127B726E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4030BF2D-5BA3-4165-8E86-0B8E7D080FEF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="226">
   <si>
     <t>Description</t>
   </si>
@@ -713,6 +713,9 @@
   </si>
   <si>
     <t>Bytes are Little Endian</t>
+  </si>
+  <si>
+    <t>MOUSE</t>
   </si>
 </sst>
 </file>
@@ -835,7 +838,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -881,6 +884,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1206,10 +1212,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC59"/>
+  <dimension ref="A1:AC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2575,27 +2581,36 @@
       <c r="B58" s="11"/>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
-      <c r="C59" t="s">
+      <c r="B59" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="C60" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D60" s="3">
         <v>255</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F60" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="I60" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2609,7 +2624,7 @@
     <mergeCell ref="B17:B38"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="E46:AC46"/>
-    <mergeCell ref="A47:A59"/>
+    <mergeCell ref="A47:A60"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="B55:B58"/>

--- a/Z80ESP/Z80ESP_Commands.xlsx
+++ b/Z80ESP/Z80ESP_Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\nhyodyne\Z80ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A954F91-664F-465B-947D-9C17127B726E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA474BC-4B04-4E61-988D-606C5172A4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4030BF2D-5BA3-4165-8E86-0B8E7D080FEF}"/>
   </bookViews>
@@ -1214,8 +1214,8 @@
   </sheetPr>
   <dimension ref="A1:AC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Z80ESP/Z80ESP_Commands.xlsx
+++ b/Z80ESP/Z80ESP_Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\nhyodyne\Z80ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA474BC-4B04-4E61-988D-606C5172A4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310F46DF-EFAF-4F11-9DE6-1EB32ECA2F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4030BF2D-5BA3-4165-8E86-0B8E7D080FEF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="228">
   <si>
     <t>Description</t>
   </si>
@@ -716,6 +716,12 @@
   </si>
   <si>
     <t>MOUSE</t>
+  </si>
+  <si>
+    <t>"V"</t>
+  </si>
+  <si>
+    <t>"1"</t>
   </si>
 </sst>
 </file>
@@ -1214,8 +1220,8 @@
   </sheetPr>
   <dimension ref="A1:AC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2286,6 +2292,12 @@
       </c>
       <c r="I39" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Z80ESP/Z80ESP_Commands.xlsx
+++ b/Z80ESP/Z80ESP_Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\nhyodyne\Z80ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310F46DF-EFAF-4F11-9DE6-1EB32ECA2F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E47EB9-BD97-4CAD-A042-F30E258386AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4030BF2D-5BA3-4165-8E86-0B8E7D080FEF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="232">
   <si>
     <t>Description</t>
   </si>
@@ -676,9 +676,6 @@
     <t>byte</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -722,6 +719,21 @@
   </si>
   <si>
     <t>"1"</t>
+  </si>
+  <si>
+    <t>sprites</t>
+  </si>
+  <si>
+    <t>mousecursor</t>
+  </si>
+  <si>
+    <t>palette</t>
+  </si>
+  <si>
+    <t>Color Mode</t>
+  </si>
+  <si>
+    <t>length</t>
   </si>
 </sst>
 </file>
@@ -1218,10 +1230,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC60"/>
+  <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,7 +1319,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1326,7 +1338,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="S3" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T3" s="19"/>
       <c r="U3" s="19"/>
@@ -1335,7 +1347,7 @@
       <c r="A4" s="9"/>
       <c r="B4" s="13"/>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -1676,7 +1688,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
         <v>23</v>
@@ -1694,7 +1706,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" t="s">
@@ -1710,7 +1722,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" t="s">
@@ -1720,7 +1732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" t="s">
@@ -1766,7 +1778,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" t="s">
@@ -1788,28 +1800,31 @@
         <v>209</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>211</v>
       </c>
       <c r="L21" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" t="s">
@@ -1834,7 +1849,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" t="s">
@@ -1868,7 +1883,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" t="s">
@@ -1902,34 +1917,37 @@
         <v>189</v>
       </c>
       <c r="M24" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q24" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>211</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>213</v>
+        <v>5</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" t="s">
@@ -1951,19 +1969,19 @@
         <v>209</v>
       </c>
       <c r="I25" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" t="s">
@@ -1985,19 +2003,19 @@
         <v>209</v>
       </c>
       <c r="I26" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" t="s">
@@ -2031,7 +2049,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" t="s">
@@ -2053,19 +2071,19 @@
         <v>209</v>
       </c>
       <c r="I28" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" t="s">
@@ -2087,16 +2105,16 @@
         <v>209</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" t="s">
@@ -2118,19 +2136,19 @@
         <v>209</v>
       </c>
       <c r="I30" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" t="s">
@@ -2152,7 +2170,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" t="s">
@@ -2174,7 +2192,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" t="s">
@@ -2196,7 +2214,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" t="s">
@@ -2206,10 +2224,10 @@
         <v>32</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" t="s">
@@ -2219,10 +2237,10 @@
         <v>33</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" t="s">
@@ -2232,10 +2250,10 @@
         <v>34</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" t="s">
@@ -2245,10 +2263,10 @@
         <v>35</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" t="s">
@@ -2270,376 +2288,424 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="C39" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="C45" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D45" s="3">
         <v>255</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I45" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J45" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="K39" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+    </row>
+    <row r="52" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E52" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="8"/>
-      <c r="W46" s="8"/>
-      <c r="X46" s="8"/>
-      <c r="Y46" s="8"/>
-      <c r="Z46" s="8"/>
-      <c r="AA46" s="8"/>
-      <c r="AB46" s="8"/>
-      <c r="AC46" s="8"/>
-    </row>
-    <row r="47" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+    </row>
+    <row r="53" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" t="s">
+      <c r="B53" s="5"/>
+      <c r="C53" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D53" s="3">
         <v>0</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="Q47" s="2" t="s">
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="Q53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="S53" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U47" s="4" t="s">
+      <c r="U53" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10" t="s">
+    <row r="54" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C54" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D54" s="3">
         <v>1</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="11"/>
-      <c r="C49" t="s">
+      <c r="E54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="11"/>
+      <c r="C55" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D55" s="3">
         <v>2</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3" t="s">
+      <c r="E55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K55" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="L55" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="M55" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="N55" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="O55" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="11"/>
-      <c r="C50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D50" s="3">
-        <v>3</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="3">
-        <v>4</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="11"/>
-      <c r="C52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="3">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="11"/>
-      <c r="C53" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53" s="3">
-        <v>6</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
-      <c r="B55" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" s="3">
-        <v>4</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="11"/>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D56" s="3">
-        <v>5</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O56" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
-      <c r="B57" s="11"/>
+      <c r="B57" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D57" s="3">
-        <v>6</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="11"/>
-      <c r="C58" s="6"/>
-    </row>
-    <row r="59" spans="1:15" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="3">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
-      <c r="B59" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B59" s="11"/>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="3">
+        <v>6</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
-      <c r="C60" t="s">
+      <c r="B60" s="11"/>
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="3">
+        <v>4</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="11"/>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="3">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="11"/>
+      <c r="C63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="3">
+        <v>6</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A64" s="9"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="6"/>
+    </row>
+    <row r="65" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="9"/>
+      <c r="B65" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="9"/>
+      <c r="C66" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D66" s="3">
         <v>255</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F66" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G66" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H66" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="I66" s="4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A39"/>
+    <mergeCell ref="A2:A45"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="E1:AC1"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B17:B38"/>
+    <mergeCell ref="B17:B44"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="E46:AC46"/>
-    <mergeCell ref="A47:A60"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="E52:AC52"/>
+    <mergeCell ref="A53:A66"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2923,19 +2989,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27453CE-DC8D-4C2E-A54A-86DD6B0401CB}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="98.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
@@ -2945,8 +3012,11 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2956,8 +3026,32 @@
       <c r="C2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>64</v>
+      </c>
+      <c r="F2">
+        <v>320</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <f>(H2*G2*F2)/8</f>
+        <v>64000</v>
+      </c>
+      <c r="J2">
+        <f>I2/1000</f>
+        <v>64</v>
+      </c>
+      <c r="K2">
+        <f>226256-I2</f>
+        <v>162256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2967,8 +3061,32 @@
       <c r="C3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>64</v>
+      </c>
+      <c r="F3">
+        <v>320</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I46" si="0">(H3*G3*F3)/8</f>
+        <v>64000</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J46" si="1">I3/1000</f>
+        <v>64</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K46" si="2">226256-I3</f>
+        <v>162256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2978,8 +3096,32 @@
       <c r="C4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>64</v>
+      </c>
+      <c r="F4">
+        <v>320</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>64000</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>162256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2989,8 +3131,32 @@
       <c r="C5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>64</v>
+      </c>
+      <c r="F5">
+        <v>320</v>
+      </c>
+      <c r="G5">
+        <v>240</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>76800</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>76.8</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>149456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3000,8 +3166,32 @@
       <c r="C6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <v>400</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>106256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3011,8 +3201,32 @@
       <c r="C7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>64</v>
+      </c>
+      <c r="F7">
+        <v>480</v>
+      </c>
+      <c r="G7">
+        <v>300</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>144000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>82256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3022,8 +3236,32 @@
       <c r="C8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>64</v>
+      </c>
+      <c r="F8">
+        <v>512</v>
+      </c>
+      <c r="G8">
+        <v>192</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>98304</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>98.304000000000002</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>127952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3033,8 +3271,32 @@
       <c r="C9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>512</v>
+      </c>
+      <c r="G9">
+        <v>384</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>98304</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>98.304000000000002</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>127952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3044,8 +3306,32 @@
       <c r="C10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>512</v>
+      </c>
+      <c r="G10">
+        <v>448</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>114688</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>114.688</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>111568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3055,8 +3341,32 @@
       <c r="C11" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>512</v>
+      </c>
+      <c r="G11">
+        <v>512</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>131072</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>131.072</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>95184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3066,8 +3376,32 @@
       <c r="C12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>640</v>
+      </c>
+      <c r="G12">
+        <v>200</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>64000</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>162256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3077,8 +3411,32 @@
       <c r="C13" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>640</v>
+      </c>
+      <c r="G13">
+        <v>200</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>64000</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>162256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3088,8 +3446,32 @@
       <c r="C14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>640</v>
+      </c>
+      <c r="G14">
+        <v>200</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>64000</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>162256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3099,8 +3481,32 @@
       <c r="C15" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>640</v>
+      </c>
+      <c r="G15">
+        <v>240</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>76800</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>76.8</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>149456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3110,8 +3516,32 @@
       <c r="C16" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>640</v>
+      </c>
+      <c r="G16">
+        <v>350</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>112000</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>114256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3121,8 +3551,32 @@
       <c r="C17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>640</v>
+      </c>
+      <c r="G17">
+        <v>350</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>112000</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>114256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3132,8 +3586,32 @@
       <c r="C18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>640</v>
+      </c>
+      <c r="G18">
+        <v>350</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>112000</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>114256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3143,8 +3621,32 @@
       <c r="C19" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>640</v>
+      </c>
+      <c r="G19">
+        <v>382</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>122240</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>122.24</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>104016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3154,8 +3656,32 @@
       <c r="C20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>640</v>
+      </c>
+      <c r="G20">
+        <v>384</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>122880</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>122.88</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>103376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3165,8 +3691,32 @@
       <c r="C21" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>640</v>
+      </c>
+      <c r="G21">
+        <v>400</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>128000</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>98256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3176,8 +3726,32 @@
       <c r="C22" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>640</v>
+      </c>
+      <c r="G22">
+        <v>400</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>128000</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>98256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3187,8 +3761,32 @@
       <c r="C23" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>640</v>
+      </c>
+      <c r="G23">
+        <v>480</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>153600</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>153.6</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>72656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3198,8 +3796,32 @@
       <c r="C24" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>640</v>
+      </c>
+      <c r="G24">
+        <v>480</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>153600</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>153.6</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>72656</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3209,8 +3831,32 @@
       <c r="C25" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>640</v>
+      </c>
+      <c r="G25">
+        <v>480</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>153600</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>153.6</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>72656</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3220,8 +3866,32 @@
       <c r="C26" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <v>640</v>
+      </c>
+      <c r="G26">
+        <v>480</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>153600</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>153.6</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>72656</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3231,8 +3901,32 @@
       <c r="C27" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="F27">
+        <v>640</v>
+      </c>
+      <c r="G27">
+        <v>480</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>153600</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>153.6</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>72656</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3242,8 +3936,32 @@
       <c r="C28" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>720</v>
+      </c>
+      <c r="G28">
+        <v>348</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>125280</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>125.28</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>100976</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3253,8 +3971,32 @@
       <c r="C29" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <v>720</v>
+      </c>
+      <c r="G29">
+        <v>348</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>125280</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>125.28</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>100976</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3264,8 +4006,32 @@
       <c r="C30" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="F30">
+        <v>720</v>
+      </c>
+      <c r="G30">
+        <v>348</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>125280</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>125.28</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>100976</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3275,8 +4041,32 @@
       <c r="C31" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>16</v>
+      </c>
+      <c r="F31">
+        <v>720</v>
+      </c>
+      <c r="G31">
+        <v>350</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>126000</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>100256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3286,8 +4076,32 @@
       <c r="C32" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>720</v>
+      </c>
+      <c r="G32">
+        <v>400</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>144000</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>82256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3297,8 +4111,32 @@
       <c r="C33" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>16</v>
+      </c>
+      <c r="F33">
+        <v>720</v>
+      </c>
+      <c r="G33">
+        <v>400</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>144000</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>82256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3308,8 +4146,32 @@
       <c r="C34" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>720</v>
+      </c>
+      <c r="G34">
+        <v>576</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>155520</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>155.52000000000001</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>70736</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3319,8 +4181,32 @@
       <c r="C35" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>768</v>
+      </c>
+      <c r="G35">
+        <v>576</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>165888</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>165.88800000000001</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>60368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3330,8 +4216,32 @@
       <c r="C36" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>800</v>
+      </c>
+      <c r="G36">
+        <v>300</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>136256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3341,8 +4251,32 @@
       <c r="C37" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>800</v>
+      </c>
+      <c r="G37">
+        <v>600</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>180000</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>46256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3352,8 +4286,32 @@
       <c r="C38" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>800</v>
+      </c>
+      <c r="G38">
+        <v>600</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>180000</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>46256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3363,8 +4321,32 @@
       <c r="C39" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>960</v>
+      </c>
+      <c r="G39">
+        <v>540</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>64800</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>64.8</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>161456</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3374,8 +4356,32 @@
       <c r="C40" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>1024</v>
+      </c>
+      <c r="G40">
+        <v>768</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>98304</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>98.304000000000002</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>127952</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3385,8 +4391,32 @@
       <c r="C41" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>1024</v>
+      </c>
+      <c r="G41">
+        <v>768</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>98304</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>98.304000000000002</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>127952</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3396,8 +4426,32 @@
       <c r="C42" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>1024</v>
+      </c>
+      <c r="G42">
+        <v>768</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>98304</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>98.304000000000002</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>127952</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3407,8 +4461,32 @@
       <c r="C43" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>1280</v>
+      </c>
+      <c r="G43">
+        <v>600</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>96000</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>130256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3418,8 +4496,32 @@
       <c r="C44" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>1280</v>
+      </c>
+      <c r="G44">
+        <v>720</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>115200</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>115.2</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>111056</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3429,8 +4531,32 @@
       <c r="C45" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>1280</v>
+      </c>
+      <c r="G45">
+        <v>720</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>115200</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>115.2</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>111056</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3439,6 +4565,30 @@
       </c>
       <c r="C46" t="s">
         <v>142</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>1280</v>
+      </c>
+      <c r="G46">
+        <v>768</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>122880</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>122.88</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>103376</v>
       </c>
     </row>
   </sheetData>

--- a/Z80ESP/Z80ESP_Commands.xlsx
+++ b/Z80ESP/Z80ESP_Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\nhyodyne\Z80ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E47EB9-BD97-4CAD-A042-F30E258386AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255CB901-1E03-4C16-B97D-55F1CD26916A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4030BF2D-5BA3-4165-8E86-0B8E7D080FEF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="233">
   <si>
     <t>Description</t>
   </si>
@@ -734,6 +734,9 @@
   </si>
   <si>
     <t>length</t>
+  </si>
+  <si>
+    <t>glyphOptions</t>
   </si>
 </sst>
 </file>
@@ -1232,8 +1235,8 @@
   </sheetPr>
   <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2318,6 +2321,9 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
+      <c r="C42" s="6" t="s">
+        <v>232</v>
+      </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>

--- a/Z80ESP/Z80ESP_Commands.xlsx
+++ b/Z80ESP/Z80ESP_Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\nhyodyne\Z80ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255CB901-1E03-4C16-B97D-55F1CD26916A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81D9B39-2D4B-4D95-9241-1F8C86BCC247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4030BF2D-5BA3-4165-8E86-0B8E7D080FEF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="250">
   <si>
     <t>Description</t>
   </si>
@@ -721,22 +721,73 @@
     <t>"1"</t>
   </si>
   <si>
-    <t>sprites</t>
-  </si>
-  <si>
-    <t>mousecursor</t>
-  </si>
-  <si>
-    <t>palette</t>
-  </si>
-  <si>
     <t>Color Mode</t>
   </si>
   <si>
     <t>length</t>
   </si>
   <si>
-    <t>glyphOptions</t>
+    <t>setGlyphOptions</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>bold</t>
+  </si>
+  <si>
+    <t>doubleWidth</t>
+  </si>
+  <si>
+    <t>FillBackground</t>
+  </si>
+  <si>
+    <t>Invert</t>
+  </si>
+  <si>
+    <t>Italic</t>
+  </si>
+  <si>
+    <t>Underline</t>
+  </si>
+  <si>
+    <t>setPaletteItem</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>setMouseCursor</t>
+  </si>
+  <si>
+    <t>setMouseCursorPosition</t>
+  </si>
+  <si>
+    <t>removeSprites</t>
+  </si>
+  <si>
+    <t>setSpriteMap</t>
+  </si>
+  <si>
+    <t>enableSprites</t>
+  </si>
+  <si>
+    <t>setSpriteLocation</t>
+  </si>
+  <si>
+    <t>setSpriteVisibility</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>visible</t>
   </si>
 </sst>
 </file>
@@ -1233,10 +1284,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC66"/>
+  <dimension ref="A1:AC69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,10 +1854,10 @@
         <v>209</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>211</v>
@@ -1926,10 +1977,10 @@
         <v>212</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>211</v>
@@ -2195,7 +2246,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" t="s">
@@ -2217,7 +2268,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" t="s">
@@ -2230,7 +2281,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" t="s">
@@ -2243,7 +2294,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" t="s">
@@ -2256,7 +2307,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" t="s">
@@ -2269,7 +2320,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" t="s">
@@ -2291,238 +2342,308 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="6" t="s">
+      <c r="C39" t="s">
         <v>229</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D39" s="3">
+        <v>37</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" s="3">
+        <v>38</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>241</v>
+      </c>
+      <c r="D41" s="3">
+        <v>39</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>242</v>
+      </c>
+      <c r="D42" s="3">
+        <v>40</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43" s="3">
+        <v>41</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>243</v>
+      </c>
+      <c r="D44" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
       <c r="C45" t="s">
+        <v>244</v>
+      </c>
+      <c r="D45" s="3">
+        <v>43</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" t="s">
+        <v>246</v>
+      </c>
+      <c r="D46" s="3">
+        <v>44</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" t="s">
+        <v>247</v>
+      </c>
+      <c r="D47" s="3">
+        <v>45</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="C48" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D48" s="3">
         <v>255</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J48" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="K48" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
+    <row r="55" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E55" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="8"/>
-      <c r="AC52" s="8"/>
-    </row>
-    <row r="53" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+    </row>
+    <row r="56" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" t="s">
+      <c r="B56" s="5"/>
+      <c r="C56" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D56" s="3">
         <v>0</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="Q53" s="2" t="s">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="Q56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S53" s="3" t="s">
+      <c r="S56" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U53" s="4" t="s">
+      <c r="U56" s="4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="11"/>
-      <c r="C55" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="3">
-        <v>2</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="11"/>
-      <c r="C56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="3">
-        <v>3</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
       <c r="B57" s="10" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D57" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>4</v>
@@ -2532,10 +2653,10 @@
       <c r="A58" s="9"/>
       <c r="B58" s="11"/>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D58" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>4</v>
@@ -2575,143 +2696,214 @@
       <c r="A59" s="9"/>
       <c r="B59" s="11"/>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D59" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="3">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
-      <c r="B61" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="B61" s="11"/>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D61" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="11"/>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D62" s="3">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="11"/>
-      <c r="C63" t="s">
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
+      <c r="B64" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="3">
+        <v>4</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="9"/>
+      <c r="B65" s="11"/>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="3">
+        <v>5</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="9"/>
+      <c r="B66" s="11"/>
+      <c r="C66" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D66" s="3">
         <v>6</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E66" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="6"/>
-    </row>
-    <row r="65" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
-      <c r="B65" s="20" t="s">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="9"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="1:15" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="9"/>
+      <c r="B68" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C68" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="C66" t="s">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
+      <c r="C69" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D69" s="3">
         <v>255</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F69" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I66" s="4" t="s">
+      <c r="I69" s="4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A45"/>
+    <mergeCell ref="A2:A48"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="E1:AC1"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B17:B44"/>
+    <mergeCell ref="B17:B47"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="E52:AC52"/>
-    <mergeCell ref="A53:A66"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="E55:AC55"/>
+    <mergeCell ref="A56:A69"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B64:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="40" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3019,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">

--- a/Z80ESP/Z80ESP_Commands.xlsx
+++ b/Z80ESP/Z80ESP_Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\nhyodyne\Z80ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81D9B39-2D4B-4D95-9241-1F8C86BCC247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F74B87-E8A6-42CB-BCD7-0AFCC9B5A96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4030BF2D-5BA3-4165-8E86-0B8E7D080FEF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="250">
   <si>
     <t>Description</t>
   </si>
@@ -1286,8 +1286,8 @@
   </sheetPr>
   <dimension ref="A1:AC69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,6 +1500,9 @@
         <v>4</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Z80ESP/Z80ESP_Commands.xlsx
+++ b/Z80ESP/Z80ESP_Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\nhyodyne\Z80ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F74B87-E8A6-42CB-BCD7-0AFCC9B5A96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DCE218-C457-494A-B183-B4D6F5E2F892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4030BF2D-5BA3-4165-8E86-0B8E7D080FEF}"/>
   </bookViews>
@@ -1287,7 +1287,7 @@
   <dimension ref="A1:AC69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Z80ESP/Z80ESP_Commands.xlsx
+++ b/Z80ESP/Z80ESP_Commands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\nhyodyne\Z80ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DCE218-C457-494A-B183-B4D6F5E2F892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D29E56-9FDF-4E7E-90D8-04330583D47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4030BF2D-5BA3-4165-8E86-0B8E7D080FEF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4030BF2D-5BA3-4165-8E86-0B8E7D080FEF}"/>
   </bookViews>
   <sheets>
     <sheet name="OPCODES" sheetId="1" r:id="rId1"/>
@@ -1286,8 +1286,8 @@
   </sheetPr>
   <dimension ref="A1:AC69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3192,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27453CE-DC8D-4C2E-A54A-86DD6B0401CB}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3230,6 +3230,10 @@
       <c r="D2">
         <v>64</v>
       </c>
+      <c r="E2" t="str">
+        <f>DEC2HEX(A2)</f>
+        <v>0</v>
+      </c>
       <c r="F2">
         <v>320</v>
       </c>
@@ -3265,6 +3269,10 @@
       <c r="D3">
         <v>64</v>
       </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E46" si="0">DEC2HEX(A3)</f>
+        <v>1</v>
+      </c>
       <c r="F3">
         <v>320</v>
       </c>
@@ -3275,15 +3283,15 @@
         <v>8</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I46" si="0">(H3*G3*F3)/8</f>
+        <f t="shared" ref="I3:I46" si="1">(H3*G3*F3)/8</f>
         <v>64000</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J46" si="1">I3/1000</f>
+        <f t="shared" ref="J3:J46" si="2">I3/1000</f>
         <v>64</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K46" si="2">226256-I3</f>
+        <f t="shared" ref="K3:K46" si="3">226256-I3</f>
         <v>162256</v>
       </c>
     </row>
@@ -3300,6 +3308,10 @@
       <c r="D4">
         <v>64</v>
       </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="F4">
         <v>320</v>
       </c>
@@ -3310,15 +3322,15 @@
         <v>8</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64000</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>162256</v>
       </c>
     </row>
@@ -3335,6 +3347,10 @@
       <c r="D5">
         <v>64</v>
       </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="F5">
         <v>320</v>
       </c>
@@ -3345,15 +3361,15 @@
         <v>8</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76800</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76.8</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>149456</v>
       </c>
     </row>
@@ -3370,6 +3386,10 @@
       <c r="D6">
         <v>64</v>
       </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="F6">
         <v>400</v>
       </c>
@@ -3380,15 +3400,15 @@
         <v>8</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120000</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>106256</v>
       </c>
     </row>
@@ -3405,6 +3425,10 @@
       <c r="D7">
         <v>64</v>
       </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="F7">
         <v>480</v>
       </c>
@@ -3415,15 +3439,15 @@
         <v>8</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>144000</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82256</v>
       </c>
     </row>
@@ -3438,7 +3462,11 @@
         <v>67</v>
       </c>
       <c r="D8">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>512</v>
@@ -3447,19 +3475,19 @@
         <v>192</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>98304</v>
+        <f t="shared" si="1"/>
+        <v>49152</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
-        <v>98.304000000000002</v>
+        <f t="shared" si="2"/>
+        <v>49.152000000000001</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
-        <v>127952</v>
+        <f t="shared" si="3"/>
+        <v>177104</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3475,6 +3503,10 @@
       <c r="D9">
         <v>16</v>
       </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="F9">
         <v>512</v>
       </c>
@@ -3485,15 +3517,15 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>98304</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98.304000000000002</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>127952</v>
       </c>
     </row>
@@ -3510,6 +3542,10 @@
       <c r="D10">
         <v>16</v>
       </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="F10">
         <v>512</v>
       </c>
@@ -3520,15 +3556,15 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>114688</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>114.688</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>111568</v>
       </c>
     </row>
@@ -3545,6 +3581,10 @@
       <c r="D11">
         <v>16</v>
       </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="F11">
         <v>512</v>
       </c>
@@ -3555,15 +3595,15 @@
         <v>4</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>131072</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>131.072</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>95184</v>
       </c>
     </row>
@@ -3580,6 +3620,10 @@
       <c r="D12">
         <v>16</v>
       </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
       <c r="F12">
         <v>640</v>
       </c>
@@ -3590,15 +3634,15 @@
         <v>4</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64000</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>162256</v>
       </c>
     </row>
@@ -3615,6 +3659,10 @@
       <c r="D13">
         <v>16</v>
       </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
       <c r="F13">
         <v>640</v>
       </c>
@@ -3625,15 +3673,15 @@
         <v>4</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64000</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>162256</v>
       </c>
     </row>
@@ -3650,6 +3698,10 @@
       <c r="D14">
         <v>16</v>
       </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
       <c r="F14">
         <v>640</v>
       </c>
@@ -3660,15 +3712,15 @@
         <v>4</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64000</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>162256</v>
       </c>
     </row>
@@ -3685,6 +3737,10 @@
       <c r="D15">
         <v>16</v>
       </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
       <c r="F15">
         <v>640</v>
       </c>
@@ -3695,15 +3751,15 @@
         <v>4</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76800</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76.8</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>149456</v>
       </c>
     </row>
@@ -3720,6 +3776,10 @@
       <c r="D16">
         <v>16</v>
       </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
       <c r="F16">
         <v>640</v>
       </c>
@@ -3730,15 +3790,15 @@
         <v>4</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112000</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>114256</v>
       </c>
     </row>
@@ -3755,6 +3815,10 @@
       <c r="D17">
         <v>16</v>
       </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
       <c r="F17">
         <v>640</v>
       </c>
@@ -3765,15 +3829,15 @@
         <v>4</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112000</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>114256</v>
       </c>
     </row>
@@ -3790,6 +3854,10 @@
       <c r="D18">
         <v>16</v>
       </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="F18">
         <v>640</v>
       </c>
@@ -3800,15 +3868,15 @@
         <v>4</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112000</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>114256</v>
       </c>
     </row>
@@ -3825,6 +3893,10 @@
       <c r="D19">
         <v>16</v>
       </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="F19">
         <v>640</v>
       </c>
@@ -3835,15 +3907,15 @@
         <v>4</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>122240</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>122.24</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>104016</v>
       </c>
     </row>
@@ -3860,6 +3932,10 @@
       <c r="D20">
         <v>16</v>
       </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="F20">
         <v>640</v>
       </c>
@@ -3870,15 +3946,15 @@
         <v>4</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>122880</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>122.88</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>103376</v>
       </c>
     </row>
@@ -3895,6 +3971,10 @@
       <c r="D21">
         <v>16</v>
       </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="F21">
         <v>640</v>
       </c>
@@ -3905,15 +3985,15 @@
         <v>4</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>128000</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98256</v>
       </c>
     </row>
@@ -3930,6 +4010,10 @@
       <c r="D22">
         <v>16</v>
       </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="F22">
         <v>640</v>
       </c>
@@ -3940,15 +4024,15 @@
         <v>4</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>128000</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="K22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98256</v>
       </c>
     </row>
@@ -3965,6 +4049,10 @@
       <c r="D23">
         <v>16</v>
       </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="F23">
         <v>640</v>
       </c>
@@ -3975,15 +4063,15 @@
         <v>4</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>153600</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>153.6</v>
       </c>
       <c r="K23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>72656</v>
       </c>
     </row>
@@ -4000,6 +4088,10 @@
       <c r="D24">
         <v>16</v>
       </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="F24">
         <v>640</v>
       </c>
@@ -4010,15 +4102,15 @@
         <v>4</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>153600</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>153.6</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>72656</v>
       </c>
     </row>
@@ -4035,6 +4127,10 @@
       <c r="D25">
         <v>16</v>
       </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="F25">
         <v>640</v>
       </c>
@@ -4045,15 +4141,15 @@
         <v>4</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>153600</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>153.6</v>
       </c>
       <c r="K25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>72656</v>
       </c>
     </row>
@@ -4070,6 +4166,10 @@
       <c r="D26">
         <v>16</v>
       </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="F26">
         <v>640</v>
       </c>
@@ -4080,15 +4180,15 @@
         <v>4</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>153600</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>153.6</v>
       </c>
       <c r="K26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>72656</v>
       </c>
     </row>
@@ -4105,6 +4205,10 @@
       <c r="D27">
         <v>16</v>
       </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="F27">
         <v>640</v>
       </c>
@@ -4115,15 +4219,15 @@
         <v>4</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>153600</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>153.6</v>
       </c>
       <c r="K27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>72656</v>
       </c>
     </row>
@@ -4140,6 +4244,10 @@
       <c r="D28">
         <v>16</v>
       </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>1A</v>
+      </c>
       <c r="F28">
         <v>720</v>
       </c>
@@ -4150,15 +4258,15 @@
         <v>4</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>125280</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125.28</v>
       </c>
       <c r="K28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100976</v>
       </c>
     </row>
@@ -4175,6 +4283,10 @@
       <c r="D29">
         <v>16</v>
       </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>1B</v>
+      </c>
       <c r="F29">
         <v>720</v>
       </c>
@@ -4185,15 +4297,15 @@
         <v>4</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>125280</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125.28</v>
       </c>
       <c r="K29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100976</v>
       </c>
     </row>
@@ -4210,6 +4322,10 @@
       <c r="D30">
         <v>16</v>
       </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>1C</v>
+      </c>
       <c r="F30">
         <v>720</v>
       </c>
@@ -4220,15 +4336,15 @@
         <v>4</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>125280</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>125.28</v>
       </c>
       <c r="K30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100976</v>
       </c>
     </row>
@@ -4245,6 +4361,10 @@
       <c r="D31">
         <v>16</v>
       </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>1D</v>
+      </c>
       <c r="F31">
         <v>720</v>
       </c>
@@ -4255,15 +4375,15 @@
         <v>4</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>126000</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="K31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100256</v>
       </c>
     </row>
@@ -4280,6 +4400,10 @@
       <c r="D32">
         <v>16</v>
       </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>1E</v>
+      </c>
       <c r="F32">
         <v>720</v>
       </c>
@@ -4290,15 +4414,15 @@
         <v>4</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>144000</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="K32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82256</v>
       </c>
     </row>
@@ -4315,6 +4439,10 @@
       <c r="D33">
         <v>16</v>
       </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>1F</v>
+      </c>
       <c r="F33">
         <v>720</v>
       </c>
@@ -4325,15 +4453,15 @@
         <v>4</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>144000</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82256</v>
       </c>
     </row>
@@ -4350,6 +4478,10 @@
       <c r="D34">
         <v>8</v>
       </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="F34">
         <v>720</v>
       </c>
@@ -4360,15 +4492,15 @@
         <v>3</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>155520</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>155.52000000000001</v>
       </c>
       <c r="K34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70736</v>
       </c>
     </row>
@@ -4385,6 +4517,10 @@
       <c r="D35">
         <v>8</v>
       </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="F35">
         <v>768</v>
       </c>
@@ -4395,15 +4531,15 @@
         <v>3</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>165888</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>165.88800000000001</v>
       </c>
       <c r="K35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60368</v>
       </c>
     </row>
@@ -4420,6 +4556,10 @@
       <c r="D36">
         <v>8</v>
       </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
       <c r="F36">
         <v>800</v>
       </c>
@@ -4430,15 +4570,15 @@
         <v>3</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>136256</v>
       </c>
     </row>
@@ -4453,7 +4593,11 @@
         <v>125</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="F37">
         <v>800</v>
@@ -4462,19 +4606,19 @@
         <v>600</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <f t="shared" si="0"/>
-        <v>180000</v>
+        <f t="shared" si="1"/>
+        <v>120000</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
-        <v>180</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
-        <v>46256</v>
+        <f t="shared" si="3"/>
+        <v>106256</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -4488,7 +4632,11 @@
         <v>127</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="F38">
         <v>800</v>
@@ -4497,19 +4645,19 @@
         <v>600</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <f t="shared" si="0"/>
-        <v>180000</v>
+        <f t="shared" si="1"/>
+        <v>120000</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
-        <v>180</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
       <c r="K38">
-        <f t="shared" si="2"/>
-        <v>46256</v>
+        <f t="shared" si="3"/>
+        <v>106256</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -4523,7 +4671,11 @@
         <v>129</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="F39">
         <v>960</v>
@@ -4532,19 +4684,19 @@
         <v>540</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <f t="shared" si="0"/>
-        <v>64800</v>
+        <f t="shared" si="1"/>
+        <v>129600</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
-        <v>64.8</v>
+        <f t="shared" si="2"/>
+        <v>129.6</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
-        <v>161456</v>
+        <f t="shared" si="3"/>
+        <v>96656</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -4560,6 +4712,10 @@
       <c r="D40">
         <v>2</v>
       </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="F40">
         <v>1024</v>
       </c>
@@ -4570,15 +4726,15 @@
         <v>1</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>98304</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98.304000000000002</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>127952</v>
       </c>
     </row>
@@ -4595,6 +4751,10 @@
       <c r="D41">
         <v>2</v>
       </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
       <c r="F41">
         <v>1024</v>
       </c>
@@ -4605,15 +4765,15 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>98304</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98.304000000000002</v>
       </c>
       <c r="K41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>127952</v>
       </c>
     </row>
@@ -4630,6 +4790,10 @@
       <c r="D42">
         <v>2</v>
       </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="F42">
         <v>1024</v>
       </c>
@@ -4640,15 +4804,15 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>98304</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98.304000000000002</v>
       </c>
       <c r="K42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>127952</v>
       </c>
     </row>
@@ -4665,6 +4829,10 @@
       <c r="D43">
         <v>2</v>
       </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
       <c r="F43">
         <v>1280</v>
       </c>
@@ -4675,15 +4843,15 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96000</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="K43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130256</v>
       </c>
     </row>
@@ -4700,6 +4868,10 @@
       <c r="D44">
         <v>2</v>
       </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>2A</v>
+      </c>
       <c r="F44">
         <v>1280</v>
       </c>
@@ -4710,15 +4882,15 @@
         <v>1</v>
       </c>
       <c r="I44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>115200</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>115.2</v>
       </c>
       <c r="K44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>111056</v>
       </c>
     </row>
@@ -4735,6 +4907,10 @@
       <c r="D45">
         <v>2</v>
       </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>2B</v>
+      </c>
       <c r="F45">
         <v>1280</v>
       </c>
@@ -4745,15 +4921,15 @@
         <v>1</v>
       </c>
       <c r="I45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>115200</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>115.2</v>
       </c>
       <c r="K45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>111056</v>
       </c>
     </row>
@@ -4770,6 +4946,10 @@
       <c r="D46">
         <v>2</v>
       </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>2C</v>
+      </c>
       <c r="F46">
         <v>1280</v>
       </c>
@@ -4780,15 +4960,15 @@
         <v>1</v>
       </c>
       <c r="I46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>122880</v>
       </c>
       <c r="J46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>122.88</v>
       </c>
       <c r="K46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>103376</v>
       </c>
     </row>

--- a/Z80ESP/Z80ESP_Commands.xlsx
+++ b/Z80ESP/Z80ESP_Commands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\nhyodyne\Z80ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D29E56-9FDF-4E7E-90D8-04330583D47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C85D0A-0262-49B3-803C-75D0305DD933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4030BF2D-5BA3-4165-8E86-0B8E7D080FEF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4030BF2D-5BA3-4165-8E86-0B8E7D080FEF}"/>
   </bookViews>
   <sheets>
     <sheet name="OPCODES" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="253">
   <si>
     <t>Description</t>
   </si>
@@ -788,6 +788,15 @@
   </si>
   <si>
     <t>visible</t>
+  </si>
+  <si>
+    <t>* Takes a second or two to process, leave plenty of time as ESP needs to reset</t>
+  </si>
+  <si>
+    <t>(bitmap size cannot exceed 31.5K)</t>
+  </si>
+  <si>
+    <t>PixelFormat</t>
   </si>
 </sst>
 </file>
@@ -1286,8 +1295,8 @@
   </sheetPr>
   <dimension ref="A1:AC69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21:W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,7 +1754,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
         <v>23</v>
@@ -1762,8 +1771,11 @@
       <c r="F17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" t="s">
@@ -1779,7 +1791,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" t="s">
@@ -1789,7 +1801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" t="s">
@@ -1835,7 +1847,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" t="s">
@@ -1857,31 +1869,49 @@
         <v>209</v>
       </c>
       <c r="I21" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N21" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q21" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="W21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" t="s">
@@ -1906,7 +1936,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" t="s">
@@ -1940,7 +1970,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" t="s">
@@ -2004,7 +2034,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" t="s">
@@ -2038,7 +2068,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" t="s">
@@ -2072,7 +2102,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" t="s">
@@ -2106,7 +2136,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" t="s">
@@ -2140,7 +2170,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" t="s">
@@ -2171,7 +2201,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" t="s">
@@ -2205,7 +2235,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" t="s">
@@ -2227,7 +2257,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" t="s">
@@ -2915,10 +2945,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC803C9-3AD5-47C1-A14B-4361BEBD9DF8}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2927,7 +2957,7 @@
     <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>144</v>
       </c>
@@ -2935,252 +2965,376 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f>DEC2HEX(A2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C32" si="0">DEC2HEX(A3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>1A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>1B</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>1C</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>1D</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>178</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>1E</v>
       </c>
     </row>
   </sheetData>
@@ -3192,8 +3346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27453CE-DC8D-4C2E-A54A-86DD6B0401CB}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Z80ESP/Z80ESP_Commands.xlsx
+++ b/Z80ESP/Z80ESP_Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\nhyodyne\Z80ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C85D0A-0262-49B3-803C-75D0305DD933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5C2AA9-C6C0-41CF-A8F3-958533B271CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4030BF2D-5BA3-4165-8E86-0B8E7D080FEF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="255">
   <si>
     <t>Description</t>
   </si>
@@ -797,6 +797,12 @@
   </si>
   <si>
     <t>PixelFormat</t>
+  </si>
+  <si>
+    <t>font</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORMATS=1:NATIVE DEVICE,2:MASK(1=OPAQUE 0=TRANSP),3: 8 BITS PIXEL aabbggrr, 4:32BITS PIXEL RGBA </t>
   </si>
 </sst>
 </file>
@@ -1295,8 +1301,8 @@
   </sheetPr>
   <dimension ref="A1:AC69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21:W21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,7 +1760,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
         <v>23</v>
@@ -1775,7 +1781,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" t="s">
@@ -1791,7 +1797,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" t="s">
@@ -1801,7 +1807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" t="s">
@@ -1847,7 +1853,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" t="s">
@@ -1910,8 +1916,11 @@
       <c r="W21" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AA21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" t="s">
@@ -1935,8 +1944,11 @@
       <c r="I22" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J22" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" t="s">
@@ -1970,7 +1982,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" t="s">
@@ -2034,7 +2046,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" t="s">
@@ -2068,7 +2080,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" t="s">
@@ -2102,7 +2114,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" t="s">
@@ -2136,7 +2148,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" t="s">
@@ -2170,7 +2182,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" t="s">
@@ -2201,7 +2213,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" t="s">
@@ -2235,7 +2247,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" t="s">
@@ -2257,7 +2269,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" t="s">

--- a/Z80ESP/Z80ESP_Commands.xlsx
+++ b/Z80ESP/Z80ESP_Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\nhyodyne\Z80ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5C2AA9-C6C0-41CF-A8F3-958533B271CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8A06D5-8EC4-4E9D-9F56-AF6778800C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4030BF2D-5BA3-4165-8E86-0B8E7D080FEF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="256">
   <si>
     <t>Description</t>
   </si>
@@ -803,6 +803,9 @@
   </si>
   <si>
     <t xml:space="preserve">FORMATS=1:NATIVE DEVICE,2:MASK(1=OPAQUE 0=TRANSP),3: 8 BITS PIXEL aabbggrr, 4:32BITS PIXEL RGBA </t>
+  </si>
+  <si>
+    <t>0=NONE, 1=ROUNDED</t>
   </si>
 </sst>
 </file>
@@ -1301,8 +1304,8 @@
   </sheetPr>
   <dimension ref="A1:AC69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A48"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,6 +2341,9 @@
       <c r="E35" s="3" t="s">
         <v>216</v>
       </c>
+      <c r="G35" s="3" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
@@ -2951,7 +2957,7 @@
     <mergeCell ref="B64:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="40" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="33" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Z80ESP/Z80ESP_Commands.xlsx
+++ b/Z80ESP/Z80ESP_Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\nhyodyne\Z80ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8A06D5-8EC4-4E9D-9F56-AF6778800C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5138FA9D-CE95-4D2E-A75E-29768EB171F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4030BF2D-5BA3-4165-8E86-0B8E7D080FEF}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="OPCODES" sheetId="1" r:id="rId1"/>
     <sheet name="Fonts" sheetId="5" r:id="rId2"/>
     <sheet name="VGA RESOLUTIONS" sheetId="3" r:id="rId3"/>
+    <sheet name="MOUSE CURSORS" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="276">
   <si>
     <t>Description</t>
   </si>
@@ -806,13 +807,73 @@
   </si>
   <si>
     <t>0=NONE, 1=ROUNDED</t>
+  </si>
+  <si>
+    <t>  CursorPointerAmigaLike,     /**&lt; 11x11 Amiga like colored mouse pointer */</t>
+  </si>
+  <si>
+    <t>  CursorPointerSimpleReduced, /**&lt; 10x15 mouse pointer */</t>
+  </si>
+  <si>
+    <t>  CursorPointerSimple,        /**&lt; 11x19 mouse pointer */</t>
+  </si>
+  <si>
+    <t>  CursorPointerShadowed,      /**&lt; 11x19 shadowed mouse pointer */</t>
+  </si>
+  <si>
+    <t>  CursorPointer,              /**&lt; 12x17 mouse pointer */</t>
+  </si>
+  <si>
+    <t>  CursorPen,                  /**&lt; 16x16 pen */</t>
+  </si>
+  <si>
+    <t>  CursorCross1,               /**&lt; 9x9 cross */</t>
+  </si>
+  <si>
+    <t>  CursorCross2,               /**&lt; 11x11 cross */</t>
+  </si>
+  <si>
+    <t>  CursorPoint,                /**&lt; 5x5 point */</t>
+  </si>
+  <si>
+    <t>  CursorLeftArrow,            /**&lt; 11x11 left arrow */</t>
+  </si>
+  <si>
+    <t>  CursorRightArrow,           /**&lt; 11x11 right arrow */</t>
+  </si>
+  <si>
+    <t>  CursorDownArrow,            /**&lt; 11x11 down arrow */</t>
+  </si>
+  <si>
+    <t>  CursorUpArrow,              /**&lt; 11x11 up arrow */</t>
+  </si>
+  <si>
+    <t>  CursorMove,                 /**&lt; 19x19 move */</t>
+  </si>
+  <si>
+    <t>  CursorResize1,              /**&lt; 12x12 resize orientation 1 */</t>
+  </si>
+  <si>
+    <t>  CursorResize2,              /**&lt; 12x12 resize orientation 2 */</t>
+  </si>
+  <si>
+    <t>  CursorResize3,              /**&lt; 11x17 resize orientation 3 */</t>
+  </si>
+  <si>
+    <t>  CursorResize4,              /**&lt; 17x11 resize orientation 4 */</t>
+  </si>
+  <si>
+    <t>  CursorTextInput,            /**&lt; 7x15 text input */</t>
+  </si>
+  <si>
+    <t>pixelformat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -861,6 +922,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -928,7 +995,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -978,6 +1045,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1304,8 +1373,8 @@
   </sheetPr>
   <dimension ref="A1:AC69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2294,7 +2363,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" t="s">
@@ -2316,7 +2385,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" t="s">
@@ -2329,7 +2398,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" t="s">
@@ -2345,7 +2414,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" t="s">
@@ -2358,7 +2427,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" t="s">
@@ -2371,7 +2440,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" t="s">
@@ -2393,7 +2462,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" t="s">
@@ -2424,7 +2493,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" t="s">
@@ -2446,7 +2515,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" t="s">
@@ -2459,7 +2528,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" t="s">
@@ -2481,7 +2550,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" t="s">
@@ -2497,7 +2566,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" t="s">
@@ -2507,7 +2576,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" t="s">
@@ -2520,31 +2589,46 @@
         <v>212</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" t="s">
@@ -2569,7 +2653,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" t="s">
@@ -2585,7 +2669,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="C48" t="s">
         <v>7</v>
@@ -5147,4 +5231,174 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DDAA18-67CF-4F72-B87A-15BC19AB5A44}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="77.28515625" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Z80ESP/Z80ESP_Commands.xlsx
+++ b/Z80ESP/Z80ESP_Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\nhyodyne\Z80ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5138FA9D-CE95-4D2E-A75E-29768EB171F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86025C67-C8C3-4FDD-AB53-4729555D19DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4030BF2D-5BA3-4165-8E86-0B8E7D080FEF}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="MOUSE CURSORS" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="275">
   <si>
     <t>Description</t>
   </si>
@@ -776,18 +777,12 @@
     <t>setSpriteMap</t>
   </si>
   <si>
-    <t>enableSprites</t>
-  </si>
-  <si>
     <t>setSpriteLocation</t>
   </si>
   <si>
     <t>setSpriteVisibility</t>
   </si>
   <si>
-    <t>enabled</t>
-  </si>
-  <si>
     <t>visible</t>
   </si>
   <si>
@@ -867,13 +862,20 @@
   </si>
   <si>
     <t>pixelformat</t>
+  </si>
+  <si>
+    <t>*AWAYS SET THE HIGHEST INDEX SPRITE LAST, AND THE MAX CONFIGURED SPRITE NUMBER IS 31. (0-32)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0.0000000000_);_(* \(#,##0.0000000000\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -928,6 +930,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -989,11 +998,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1007,10 +1017,13 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
@@ -1020,21 +1033,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1042,14 +1055,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Comma" xfId="4" builtinId="3"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1065,10 +1076,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1371,10 +1378,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC69"/>
+  <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,36 +1401,36 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="5"/>
@@ -1455,8 +1462,8 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
@@ -1478,15 +1485,15 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="16"/>
       <c r="C4" t="s">
         <v>222</v>
       </c>
@@ -1528,8 +1535,8 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="16"/>
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -1541,8 +1548,8 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="16"/>
       <c r="C6" t="s">
         <v>47</v>
       </c>
@@ -1554,8 +1561,8 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="17"/>
       <c r="C7" t="s">
         <v>45</v>
       </c>
@@ -1570,8 +1577,8 @@
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
@@ -1594,8 +1601,8 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
       <c r="C9" t="s">
         <v>50</v>
       </c>
@@ -1610,21 +1617,21 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
       <c r="C10" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="3">
         <v>8</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -1666,8 +1673,8 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="C12" t="s">
         <v>26</v>
       </c>
@@ -1679,8 +1686,8 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
       <c r="C13" t="s">
         <v>48</v>
       </c>
@@ -1692,8 +1699,8 @@
       </c>
     </row>
     <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
@@ -1737,8 +1744,8 @@
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="12"/>
       <c r="C15" t="s">
         <v>28</v>
       </c>
@@ -1820,8 +1827,8 @@
       <c r="AC15" s="3"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="12"/>
       <c r="C16" t="s">
         <v>39</v>
       </c>
@@ -1833,8 +1840,8 @@
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
@@ -1843,26 +1850,26 @@
       <c r="D17" s="3">
         <v>15</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>54</v>
       </c>
       <c r="I17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
       <c r="C18" t="s">
         <v>146</v>
       </c>
       <c r="D18" s="3">
         <v>16</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F18" t="s">
@@ -1870,8 +1877,8 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
       <c r="C19" t="s">
         <v>180</v>
       </c>
@@ -1880,8 +1887,8 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
       <c r="C20" t="s">
         <v>181</v>
       </c>
@@ -1926,8 +1933,8 @@
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
       <c r="C21" t="s">
         <v>190</v>
       </c>
@@ -1959,7 +1966,7 @@
         <v>189</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>228</v>
@@ -1986,15 +1993,15 @@
         <v>211</v>
       </c>
       <c r="W21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AA21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>191</v>
       </c>
@@ -2017,12 +2024,12 @@
         <v>210</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
       <c r="C23" t="s">
         <v>192</v>
       </c>
@@ -2055,8 +2062,8 @@
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
       <c r="C24" t="s">
         <v>193</v>
       </c>
@@ -2119,8 +2126,8 @@
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>194</v>
       </c>
@@ -2153,8 +2160,8 @@
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
       <c r="C26" t="s">
         <v>195</v>
       </c>
@@ -2187,8 +2194,8 @@
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
       <c r="C27" t="s">
         <v>196</v>
       </c>
@@ -2221,8 +2228,8 @@
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
       <c r="C28" t="s">
         <v>197</v>
       </c>
@@ -2255,8 +2262,8 @@
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
       <c r="C29" t="s">
         <v>198</v>
       </c>
@@ -2286,8 +2293,8 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
       <c r="C30" t="s">
         <v>199</v>
       </c>
@@ -2320,8 +2327,8 @@
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
       <c r="C31" t="s">
         <v>200</v>
       </c>
@@ -2342,8 +2349,8 @@
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
       <c r="C32" t="s">
         <v>201</v>
       </c>
@@ -2363,9 +2370,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
       <c r="C33" t="s">
         <v>202</v>
       </c>
@@ -2385,9 +2392,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
       <c r="C34" t="s">
         <v>203</v>
       </c>
@@ -2398,9 +2405,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
       <c r="C35" t="s">
         <v>204</v>
       </c>
@@ -2411,12 +2418,12 @@
         <v>216</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
       <c r="C36" t="s">
         <v>205</v>
       </c>
@@ -2427,9 +2434,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
       <c r="C37" t="s">
         <v>206</v>
       </c>
@@ -2440,9 +2447,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
       <c r="C38" t="s">
         <v>207</v>
       </c>
@@ -2462,9 +2469,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
       <c r="C39" t="s">
         <v>229</v>
       </c>
@@ -2493,9 +2500,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
       <c r="C40" t="s">
         <v>237</v>
       </c>
@@ -2515,9 +2522,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
       <c r="C41" t="s">
         <v>241</v>
       </c>
@@ -2528,9 +2535,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
       <c r="C42" t="s">
         <v>242</v>
       </c>
@@ -2550,87 +2557,99 @@
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
       <c r="C43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D43" s="3">
         <v>41</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
       <c r="C44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D44" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
+      <c r="E44" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="T44" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
       <c r="C45" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D45" s="3">
         <v>43</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
       <c r="C46" t="s">
         <v>246</v>
       </c>
@@ -2638,407 +2657,382 @@
         <v>44</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
       <c r="C47" t="s">
-        <v>247</v>
+        <v>7</v>
       </c>
       <c r="D47" s="3">
-        <v>45</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="C48" t="s">
+        <v>255</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+      <c r="X54" s="14"/>
+      <c r="Y54" s="14"/>
+      <c r="Z54" s="14"/>
+      <c r="AA54" s="14"/>
+      <c r="AB54" s="14"/>
+      <c r="AC54" s="14"/>
+    </row>
+    <row r="55" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="Q55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U55" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10"/>
+      <c r="B56" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="12"/>
+      <c r="C57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="12"/>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="3">
+        <v>3</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="10"/>
+      <c r="B59" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="3">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="12"/>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="3">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="12"/>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="3">
+        <v>6</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="6"/>
+    </row>
+    <row r="63" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="10"/>
+      <c r="B63" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="3">
+        <v>4</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="12"/>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="3">
+        <v>5</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
+      <c r="B65" s="12"/>
+      <c r="C65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="3">
+        <v>6</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="C68" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D68" s="3">
         <v>255</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E68" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F68" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G68" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="8"/>
-      <c r="W55" s="8"/>
-      <c r="X55" s="8"/>
-      <c r="Y55" s="8"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="8"/>
-      <c r="AC55" s="8"/>
-    </row>
-    <row r="56" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="3">
-        <v>0</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="Q56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="U56" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
-      <c r="B57" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C57" t="s">
-        <v>41</v>
-      </c>
-      <c r="D57" s="3">
-        <v>1</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="11"/>
-      <c r="C58" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="3">
-        <v>2</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="11"/>
-      <c r="C59" t="s">
-        <v>42</v>
-      </c>
-      <c r="D59" s="3">
-        <v>3</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="3">
-        <v>4</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="11"/>
-      <c r="C61" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" s="3">
-        <v>5</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O61" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="11"/>
-      <c r="C62" t="s">
-        <v>26</v>
-      </c>
-      <c r="D62" s="3">
-        <v>6</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="6"/>
-    </row>
-    <row r="64" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
-      <c r="B64" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="3">
-        <v>4</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
-      <c r="B65" s="11"/>
-      <c r="C65" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="3">
-        <v>5</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N65" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O65" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="11"/>
-      <c r="C66" t="s">
-        <v>26</v>
-      </c>
-      <c r="D66" s="3">
-        <v>6</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="6"/>
-    </row>
-    <row r="68" spans="1:15" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="C69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="3">
-        <v>255</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I69" s="4" t="s">
+      <c r="I68" s="4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A48"/>
+    <mergeCell ref="E54:AC54"/>
+    <mergeCell ref="A55:A68"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="A2:A47"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="E1:AC1"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B17:B47"/>
+    <mergeCell ref="B17:B46"/>
     <mergeCell ref="S3:U3"/>
-    <mergeCell ref="E55:AC55"/>
-    <mergeCell ref="A56:A69"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B64:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="33" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3055,7 +3049,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="7" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3068,7 +3062,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="7">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -3080,7 +3074,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -3092,7 +3086,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -3104,7 +3098,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -3116,7 +3110,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -3128,7 +3122,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -3140,7 +3134,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -3152,7 +3146,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -3164,7 +3158,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -3176,7 +3170,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -3188,7 +3182,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -3200,7 +3194,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -3212,7 +3206,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -3224,7 +3218,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -3236,7 +3230,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -3248,7 +3242,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -3260,7 +3254,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -3272,7 +3266,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -3284,7 +3278,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -3296,7 +3290,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -3308,7 +3302,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -3320,7 +3314,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -3332,7 +3326,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="A24" s="7">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -3344,7 +3338,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -3356,7 +3350,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="A26" s="7">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -3368,7 +3362,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -3380,7 +3374,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="A28" s="7">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -3392,7 +3386,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+      <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -3404,7 +3398,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+      <c r="A30" s="7">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -3416,7 +3410,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -3428,7 +3422,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+      <c r="A32" s="7">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -5235,168 +5229,174 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DDAA18-67CF-4F72-B87A-15BC19AB5A44}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="77.28515625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="77.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>256</v>
+      <c r="B1" s="9" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>257</v>
+      <c r="B2" s="9" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>258</v>
+      <c r="B3" s="9" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>259</v>
+      <c r="B4" s="9" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>260</v>
+      <c r="B5" s="9" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>261</v>
+      <c r="B6" s="9" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>262</v>
+      <c r="B7" s="9" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>263</v>
+      <c r="B8" s="9" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>264</v>
+      <c r="B9" s="9" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>265</v>
+      <c r="B10" s="9" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>266</v>
+      <c r="B11" s="9" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>267</v>
+      <c r="B12" s="9" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>268</v>
+      <c r="B13" s="9" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>269</v>
+      <c r="B14" s="9" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>270</v>
+      <c r="B15" s="9" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>274</v>
-      </c>
+      <c r="B19" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Z80ESP/Z80ESP_Commands.xlsx
+++ b/Z80ESP/Z80ESP_Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\nhyodyne\Z80ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86025C67-C8C3-4FDD-AB53-4729555D19DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5325479C-1636-4489-BA94-3A0D72D2FB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4030BF2D-5BA3-4165-8E86-0B8E7D080FEF}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="275">
   <si>
     <t>Description</t>
   </si>
@@ -174,9 +174,6 @@
     <t>WiFi</t>
   </si>
   <si>
-    <t>Bluetooth</t>
-  </si>
-  <si>
     <t>Set display cursor</t>
   </si>
   <si>
@@ -865,6 +862,9 @@
   </si>
   <si>
     <t>*AWAYS SET THE HIGHEST INDEX SPRITE LAST, AND THE MAX CONFIGURED SPRITE NUMBER IS 31. (0-32)</t>
+  </si>
+  <si>
+    <t>Chars in Wifi Buffer</t>
   </si>
 </sst>
 </file>
@@ -1378,10 +1378,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC68"/>
+  <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1467,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1486,7 +1486,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="S3" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
@@ -1495,7 +1495,7 @@
       <c r="A4" s="10"/>
       <c r="B4" s="16"/>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -1551,7 +1551,7 @@
       <c r="A6" s="10"/>
       <c r="B6" s="16"/>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
@@ -1564,7 +1564,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="17"/>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3">
         <v>5</v>
@@ -1573,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -1582,7 +1582,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="3">
         <v>6</v>
@@ -1604,7 +1604,7 @@
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3">
         <v>7</v>
@@ -1613,7 +1613,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1689,7 +1689,7 @@
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="3">
         <v>11</v>
@@ -1845,7 +1845,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="3">
         <v>15</v>
@@ -1854,17 +1854,17 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" s="3">
         <v>16</v>
@@ -1873,14 +1873,14 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D19" s="3">
         <v>17</v>
@@ -1890,98 +1890,98 @@
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D20" s="3">
         <v>18</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D21" s="3">
         <v>19</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="I21" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="M21" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>5</v>
@@ -1990,130 +1990,130 @@
         <v>5</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D22" s="3">
         <v>20</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="J22" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D23" s="3">
         <v>21</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="I23" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D24" s="3">
         <v>22</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="I24" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="M24" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>5</v>
@@ -2122,446 +2122,446 @@
         <v>5</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D25" s="3">
         <v>23</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="I25" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D26" s="3">
         <v>24</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="I26" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D27" s="3">
         <v>25</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="I27" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D28" s="3">
         <v>26</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="I28" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D29" s="3">
         <v>27</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="I29" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D30" s="3">
         <v>28</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="I30" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D31" s="3">
         <v>29</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D32" s="3">
         <v>30</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D33" s="3">
         <v>31</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D34" s="3">
         <v>32</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D35" s="3">
         <v>33</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D36" s="3">
         <v>34</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D37" s="3">
         <v>35</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D38" s="3">
         <v>36</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D39" s="3">
         <v>37</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D40" s="3">
         <v>38</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F40" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D41" s="3">
         <v>39</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D42" s="3">
         <v>40</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D43" s="3">
         <v>41</v>
@@ -2571,43 +2571,43 @@
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D44" s="3">
         <v>42</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F44" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="J44" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>5</v>
@@ -2616,51 +2616,51 @@
         <v>5</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D45" s="3">
         <v>43</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="I45" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D46" s="3">
         <v>44</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -2687,345 +2687,333 @@
         <v>12</v>
       </c>
       <c r="J47" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="K47" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
+    </row>
+    <row r="49" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E49" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
-      <c r="X54" s="14"/>
-      <c r="Y54" s="14"/>
-      <c r="Z54" s="14"/>
-      <c r="AA54" s="14"/>
-      <c r="AB54" s="14"/>
-      <c r="AC54" s="14"/>
-    </row>
-    <row r="55" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="10" t="s">
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="14"/>
+      <c r="AC49" s="14"/>
+    </row>
+    <row r="50" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="Q50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U50" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="12"/>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="12"/>
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="3">
+        <v>3</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="12"/>
+      <c r="C54" t="s">
+        <v>274</v>
+      </c>
+      <c r="D54" s="3">
+        <v>4</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="18" t="s">
+        <v>21</v>
+      </c>
       <c r="C55" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D55" s="3">
-        <v>0</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="Q55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="U55" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
-      <c r="B56" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="B56" s="10"/>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D56" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
-      <c r="B57" s="12"/>
+      <c r="B57" s="10"/>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D57" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
-      <c r="B58" s="12"/>
+      <c r="B58" s="10"/>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D58" s="3">
-        <v>3</v>
-      </c>
-      <c r="E58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="3">
+        <v>10</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="10"/>
-      <c r="B59" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="3">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
-      <c r="B60" s="12"/>
+      <c r="B60" s="10"/>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D60" s="3">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
-      <c r="B61" s="12"/>
-      <c r="C61" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61" s="3">
-        <v>6</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>17</v>
+      <c r="B61" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="6"/>
-    </row>
-    <row r="63" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="10"/>
-      <c r="B63" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" s="3">
-        <v>4</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
-      <c r="B64" s="12"/>
-      <c r="C64" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="3">
-        <v>5</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O64" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="B65" s="12"/>
-      <c r="C65" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="3">
-        <v>6</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="6"/>
-    </row>
-    <row r="67" spans="1:9" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-      <c r="B67" s="8" t="s">
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="3">
+        <v>255</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="C68" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="3">
-        <v>255</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>12</v>
+      <c r="K62" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="E54:AC54"/>
-    <mergeCell ref="A55:A68"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B63:B66"/>
+  <mergeCells count="11">
+    <mergeCell ref="E49:AC49"/>
+    <mergeCell ref="A50:A62"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B55:B60"/>
     <mergeCell ref="A2:A47"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="E1:AC1"/>
@@ -3055,10 +3043,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3066,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" t="str">
         <f>DEC2HEX(A2)</f>
@@ -3078,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C32" si="0">DEC2HEX(A3)</f>
@@ -3090,7 +3078,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -3102,7 +3090,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -3114,7 +3102,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -3126,7 +3114,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -3138,7 +3126,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -3150,7 +3138,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -3162,7 +3150,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -3174,7 +3162,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -3186,7 +3174,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -3198,7 +3186,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -3210,7 +3198,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -3222,7 +3210,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -3234,7 +3222,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -3246,7 +3234,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -3258,7 +3246,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -3270,7 +3258,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -3282,7 +3270,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -3294,7 +3282,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -3306,7 +3294,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -3318,7 +3306,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -3330,7 +3318,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -3342,7 +3330,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -3354,7 +3342,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -3366,7 +3354,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -3378,7 +3366,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -3390,7 +3378,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -3402,7 +3390,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -3414,7 +3402,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -3426,7 +3414,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -3435,6 +3423,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3455,16 +3444,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3472,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>64</v>
@@ -3511,10 +3500,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>64</v>
@@ -3550,10 +3539,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <v>64</v>
@@ -3589,10 +3578,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>64</v>
@@ -3628,10 +3617,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <v>64</v>
@@ -3667,10 +3656,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>64</v>
@@ -3706,10 +3695,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8">
         <v>16</v>
@@ -3745,10 +3734,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9">
         <v>16</v>
@@ -3784,10 +3773,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10">
         <v>16</v>
@@ -3823,10 +3812,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11">
         <v>16</v>
@@ -3862,10 +3851,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12">
         <v>16</v>
@@ -3901,10 +3890,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13">
         <v>16</v>
@@ -3940,10 +3929,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14">
         <v>16</v>
@@ -3979,10 +3968,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15">
         <v>16</v>
@@ -4018,10 +4007,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16">
         <v>16</v>
@@ -4057,10 +4046,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -4096,10 +4085,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18">
         <v>16</v>
@@ -4135,10 +4124,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19">
         <v>16</v>
@@ -4174,10 +4163,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20">
         <v>16</v>
@@ -4213,10 +4202,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <v>16</v>
@@ -4252,10 +4241,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22">
         <v>16</v>
@@ -4291,10 +4280,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23">
         <v>16</v>
@@ -4330,10 +4319,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24">
         <v>16</v>
@@ -4369,10 +4358,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D25">
         <v>16</v>
@@ -4408,10 +4397,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26">
         <v>16</v>
@@ -4447,10 +4436,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27">
         <v>16</v>
@@ -4486,10 +4475,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D28">
         <v>16</v>
@@ -4525,10 +4514,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D29">
         <v>16</v>
@@ -4564,10 +4553,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D30">
         <v>16</v>
@@ -4603,10 +4592,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D31">
         <v>16</v>
@@ -4642,10 +4631,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D32">
         <v>16</v>
@@ -4681,10 +4670,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D33">
         <v>16</v>
@@ -4720,10 +4709,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D34">
         <v>8</v>
@@ -4759,10 +4748,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D35">
         <v>8</v>
@@ -4798,10 +4787,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D36">
         <v>8</v>
@@ -4837,10 +4826,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -4876,10 +4865,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -4915,10 +4904,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -4954,10 +4943,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -4993,10 +4982,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -5032,10 +5021,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -5071,10 +5060,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -5110,10 +5099,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -5149,10 +5138,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -5188,10 +5177,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -5224,6 +5213,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5247,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5255,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5263,7 +5253,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5271,7 +5261,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5279,7 +5269,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5287,7 +5277,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5295,7 +5285,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5303,7 +5293,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5311,7 +5301,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5319,7 +5309,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5327,7 +5317,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5335,7 +5325,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5343,7 +5333,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -5351,7 +5341,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5359,7 +5349,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5367,7 +5357,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5375,7 +5365,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5383,7 +5373,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5391,7 +5381,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5400,5 +5390,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Z80ESP/Z80ESP_Commands.xlsx
+++ b/Z80ESP/Z80ESP_Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\nhyodyne\Z80ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5325479C-1636-4489-BA94-3A0D72D2FB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5318D373-C7F3-4570-BCB1-BBEF918142A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4030BF2D-5BA3-4165-8E86-0B8E7D080FEF}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="303">
   <si>
     <t>Description</t>
   </si>
@@ -165,12 +165,6 @@
     <t>ESP1</t>
   </si>
   <si>
-    <t>WiFi Modem TX Single char</t>
-  </si>
-  <si>
-    <t>WiFi Modem RX</t>
-  </si>
-  <si>
     <t>WiFi</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>(8n1=0,8e1=1,8o1=2,7n1=3,7e1=4,7o1=5)</t>
   </si>
   <si>
-    <t>WiFi Modem TX Null Terminated String</t>
-  </si>
-  <si>
     <t>Set resolution</t>
   </si>
   <si>
@@ -864,7 +855,100 @@
     <t>*AWAYS SET THE HIGHEST INDEX SPRITE LAST, AND THE MAX CONFIGURED SPRITE NUMBER IS 31. (0-32)</t>
   </si>
   <si>
-    <t>Chars in Wifi Buffer</t>
+    <t>WiFi Set SSID</t>
+  </si>
+  <si>
+    <t>WiFi Set Password</t>
+  </si>
+  <si>
+    <t>WiFi Connect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>WiFi Get Status</t>
+  </si>
+  <si>
+    <t>WiFi Get Signal Strength</t>
+  </si>
+  <si>
+    <t>TCP/IP</t>
+  </si>
+  <si>
+    <t>Get IP Address</t>
+  </si>
+  <si>
+    <t>Get Subnet Mask</t>
+  </si>
+  <si>
+    <t>Get Gateway</t>
+  </si>
+  <si>
+    <t>Get Primary DNS</t>
+  </si>
+  <si>
+    <t>Get Secondary DNS</t>
+  </si>
+  <si>
+    <t>Set IP Address</t>
+  </si>
+  <si>
+    <t>Set Subnet Mask</t>
+  </si>
+  <si>
+    <t>Set Gateway</t>
+  </si>
+  <si>
+    <t>Set Primary DNS</t>
+  </si>
+  <si>
+    <t>Set Secondary DNS</t>
+  </si>
+  <si>
+    <t>Telnet</t>
+  </si>
+  <si>
+    <t>Create Outgoing Connection</t>
+  </si>
+  <si>
+    <t>Conn#</t>
+  </si>
+  <si>
+    <t>Set Incomming Port</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>Hostname</t>
+  </si>
+  <si>
+    <t>Out Byte to Connection#</t>
+  </si>
+  <si>
+    <t>Out String to Connection#</t>
+  </si>
+  <si>
+    <t>In Byte From Connection#</t>
+  </si>
+  <si>
+    <t>Chars in Buffer from Connection#</t>
+  </si>
+  <si>
+    <t>Out Byte to Incomming Port</t>
+  </si>
+  <si>
+    <t>Out String to Incomming Port</t>
+  </si>
+  <si>
+    <t>In Byte From Incomming Port</t>
+  </si>
+  <si>
+    <t>Chars in Buffer from Incomming Port</t>
+  </si>
+  <si>
+    <t>Set Hostname</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1089,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1057,6 +1141,8 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1378,10 +1464,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC62"/>
+  <dimension ref="A1:AC84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1553,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -1486,7 +1572,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="S3" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
@@ -1495,7 +1581,7 @@
       <c r="A4" s="10"/>
       <c r="B4" s="16"/>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -1551,7 +1637,7 @@
       <c r="A6" s="10"/>
       <c r="B6" s="16"/>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
@@ -1564,7 +1650,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="17"/>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3">
         <v>5</v>
@@ -1573,7 +1659,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -1582,7 +1668,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3">
         <v>6</v>
@@ -1604,7 +1690,7 @@
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" s="3">
         <v>7</v>
@@ -1613,7 +1699,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1689,7 +1775,7 @@
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3">
         <v>11</v>
@@ -1845,7 +1931,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" s="3">
         <v>15</v>
@@ -1854,17 +1940,17 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D18" s="3">
         <v>16</v>
@@ -1873,14 +1959,14 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D19" s="3">
         <v>17</v>
@@ -1890,98 +1976,98 @@
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D20" s="3">
         <v>18</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="N20" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="O20" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="P20" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D21" s="3">
         <v>19</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="P21" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="R21" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>5</v>
@@ -1990,130 +2076,130 @@
         <v>5</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="W21" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA21" t="s">
         <v>248</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D22" s="3">
         <v>20</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D23" s="3">
         <v>21</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D24" s="3">
         <v>22</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q24" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="S24" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>5</v>
@@ -2122,446 +2208,446 @@
         <v>5</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D25" s="3">
         <v>23</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D26" s="3">
         <v>24</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D27" s="3">
         <v>25</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D28" s="3">
         <v>26</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D29" s="3">
         <v>27</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D30" s="3">
         <v>28</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D31" s="3">
         <v>29</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D32" s="3">
         <v>30</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D33" s="3">
         <v>31</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D34" s="3">
         <v>32</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D35" s="3">
         <v>33</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D36" s="3">
         <v>34</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D37" s="3">
         <v>35</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D38" s="3">
         <v>36</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D39" s="3">
         <v>37</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D40" s="3">
         <v>38</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D41" s="3">
         <v>39</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D42" s="3">
         <v>40</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D43" s="3">
         <v>41</v>
@@ -2571,43 +2657,43 @@
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D44" s="3">
         <v>42</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>5</v>
@@ -2616,51 +2702,51 @@
         <v>5</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="T44" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D45" s="3">
         <v>43</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G45" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D46" s="3">
         <v>44</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -2687,10 +2773,10 @@
         <v>12</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2766,23 +2852,53 @@
     <row r="51" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="12"/>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>272</v>
       </c>
       <c r="D52" s="3">
         <v>2</v>
@@ -2825,195 +2941,724 @@
       <c r="A53" s="10"/>
       <c r="B53" s="12"/>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>273</v>
       </c>
       <c r="D53" s="3">
         <v>3</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>17</v>
+      <c r="E53" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="12"/>
       <c r="C54" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D54" s="3">
         <v>4</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>17</v>
+      <c r="E54" s="24" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
-      <c r="B55" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="B55" s="12"/>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>276</v>
       </c>
       <c r="D55" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>4</v>
+      <c r="F55" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
+      <c r="B56" s="18" t="s">
+        <v>21</v>
+      </c>
       <c r="C56" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D56" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F56" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D57" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D58" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D59" s="3">
-        <v>10</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D60" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
-      <c r="B61" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>223</v>
+      <c r="B61" s="10"/>
+      <c r="C61" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" s="3">
+        <v>11</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
+      <c r="B62" s="18" t="s">
+        <v>277</v>
+      </c>
       <c r="C62" t="s">
+        <v>278</v>
+      </c>
+      <c r="D62" s="3">
+        <v>12</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="17"/>
+      <c r="C63" t="s">
+        <v>279</v>
+      </c>
+      <c r="D63" s="3">
+        <v>13</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="17"/>
+      <c r="C64" t="s">
+        <v>280</v>
+      </c>
+      <c r="D64" s="3">
+        <v>14</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
+      <c r="B65" s="17"/>
+      <c r="C65" t="s">
+        <v>281</v>
+      </c>
+      <c r="D65" s="3">
+        <v>15</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
+      <c r="B66" s="17"/>
+      <c r="C66" t="s">
+        <v>282</v>
+      </c>
+      <c r="D66" s="3">
+        <v>16</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="17"/>
+      <c r="C67" t="s">
+        <v>283</v>
+      </c>
+      <c r="D67" s="3">
+        <v>12</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" s="17"/>
+      <c r="C68" t="s">
+        <v>284</v>
+      </c>
+      <c r="D68" s="3">
+        <v>13</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="17"/>
+      <c r="C69" t="s">
+        <v>285</v>
+      </c>
+      <c r="D69" s="3">
+        <v>14</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
+      <c r="B70" s="17"/>
+      <c r="C70" t="s">
+        <v>286</v>
+      </c>
+      <c r="D70" s="3">
+        <v>15</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="17"/>
+      <c r="C71" t="s">
+        <v>287</v>
+      </c>
+      <c r="D71" s="3">
+        <v>16</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="10"/>
+      <c r="B72" s="17"/>
+      <c r="C72" t="s">
+        <v>302</v>
+      </c>
+      <c r="D72" s="3">
+        <v>17</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
+      <c r="B73" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="C73" t="s">
+        <v>289</v>
+      </c>
+      <c r="D73" s="3">
+        <v>18</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
+      <c r="B74" s="18"/>
+      <c r="C74" t="s">
+        <v>291</v>
+      </c>
+      <c r="D74" s="3">
+        <v>19</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" s="18"/>
+      <c r="C75" t="s">
+        <v>294</v>
+      </c>
+      <c r="D75" s="3">
+        <v>20</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" s="18"/>
+      <c r="C76" t="s">
+        <v>295</v>
+      </c>
+      <c r="D76" s="3">
+        <v>21</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+      <c r="B77" s="18"/>
+      <c r="C77" t="s">
+        <v>296</v>
+      </c>
+      <c r="D77" s="3">
+        <v>22</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="10"/>
+      <c r="B78" s="18"/>
+      <c r="C78" t="s">
+        <v>297</v>
+      </c>
+      <c r="D78" s="3">
+        <v>23</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+      <c r="B79" s="18"/>
+      <c r="C79" t="s">
+        <v>298</v>
+      </c>
+      <c r="D79" s="3">
+        <v>24</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="10"/>
+      <c r="B80" s="18"/>
+      <c r="C80" t="s">
+        <v>299</v>
+      </c>
+      <c r="D80" s="3">
+        <v>25</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="B81" s="18"/>
+      <c r="C81" t="s">
+        <v>300</v>
+      </c>
+      <c r="D81" s="3">
+        <v>26</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="18"/>
+      <c r="C82" t="s">
+        <v>301</v>
+      </c>
+      <c r="D82" s="3">
+        <v>27</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="C84" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D84" s="3">
         <v>255</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F84" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G84" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H84" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="I84" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J62" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>225</v>
+      <c r="J84" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="E49:AC49"/>
-    <mergeCell ref="A50:A62"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="A50:A84"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B72"/>
+    <mergeCell ref="B73:B82"/>
     <mergeCell ref="A2:A47"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="E1:AC1"/>
@@ -3043,10 +3688,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3054,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C2" t="str">
         <f>DEC2HEX(A2)</f>
@@ -3066,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C32" si="0">DEC2HEX(A3)</f>
@@ -3078,7 +3723,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -3090,7 +3735,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -3102,7 +3747,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -3114,7 +3759,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -3126,7 +3771,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -3138,7 +3783,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -3150,7 +3795,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -3162,7 +3807,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -3174,7 +3819,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -3186,7 +3831,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -3198,7 +3843,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -3210,7 +3855,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -3222,7 +3867,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -3234,7 +3879,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -3246,7 +3891,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -3258,7 +3903,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -3270,7 +3915,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -3282,7 +3927,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -3294,7 +3939,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -3306,7 +3951,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
@@ -3318,7 +3963,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -3330,7 +3975,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -3342,7 +3987,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -3354,7 +3999,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -3366,7 +4011,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -3378,7 +4023,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -3390,7 +4035,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -3402,7 +4047,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
@@ -3414,7 +4059,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
@@ -3444,16 +4089,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3461,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <v>64</v>
@@ -3500,10 +4145,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D3">
         <v>64</v>
@@ -3539,10 +4184,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>64</v>
@@ -3578,10 +4223,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>64</v>
@@ -3617,10 +4262,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D6">
         <v>64</v>
@@ -3656,10 +4301,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>64</v>
@@ -3695,10 +4340,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>16</v>
@@ -3734,10 +4379,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D9">
         <v>16</v>
@@ -3773,10 +4418,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D10">
         <v>16</v>
@@ -3812,10 +4457,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D11">
         <v>16</v>
@@ -3851,10 +4496,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D12">
         <v>16</v>
@@ -3890,10 +4535,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D13">
         <v>16</v>
@@ -3929,10 +4574,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D14">
         <v>16</v>
@@ -3968,10 +4613,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D15">
         <v>16</v>
@@ -4007,10 +4652,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D16">
         <v>16</v>
@@ -4046,10 +4691,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -4085,10 +4730,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D18">
         <v>16</v>
@@ -4124,10 +4769,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D19">
         <v>16</v>
@@ -4163,10 +4808,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D20">
         <v>16</v>
@@ -4202,10 +4847,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D21">
         <v>16</v>
@@ -4241,10 +4886,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D22">
         <v>16</v>
@@ -4280,10 +4925,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D23">
         <v>16</v>
@@ -4319,10 +4964,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D24">
         <v>16</v>
@@ -4358,10 +5003,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D25">
         <v>16</v>
@@ -4397,10 +5042,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D26">
         <v>16</v>
@@ -4436,10 +5081,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D27">
         <v>16</v>
@@ -4475,10 +5120,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D28">
         <v>16</v>
@@ -4514,10 +5159,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D29">
         <v>16</v>
@@ -4553,10 +5198,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D30">
         <v>16</v>
@@ -4592,10 +5237,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D31">
         <v>16</v>
@@ -4631,10 +5276,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D32">
         <v>16</v>
@@ -4670,10 +5315,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D33">
         <v>16</v>
@@ -4709,10 +5354,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D34">
         <v>8</v>
@@ -4748,10 +5393,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D35">
         <v>8</v>
@@ -4787,10 +5432,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D36">
         <v>8</v>
@@ -4826,10 +5471,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -4865,10 +5510,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -4904,10 +5549,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -4943,10 +5588,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -4982,10 +5627,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -5021,10 +5666,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -5060,10 +5705,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -5099,10 +5744,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -5138,10 +5783,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -5177,10 +5822,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -5237,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5245,7 +5890,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5253,7 +5898,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5261,7 +5906,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5269,7 +5914,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5277,7 +5922,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5285,7 +5930,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5293,7 +5938,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5301,7 +5946,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5309,7 +5954,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5317,7 +5962,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5325,7 +5970,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5333,7 +5978,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -5341,7 +5986,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5349,7 +5994,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5357,7 +6002,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5365,7 +6010,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5373,7 +6018,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5381,7 +6026,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">

--- a/Z80ESP/Z80ESP_Commands.xlsx
+++ b/Z80ESP/Z80ESP_Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\nhyodyne\Z80ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5318D373-C7F3-4570-BCB1-BBEF918142A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D372D43-038E-4F64-9A61-38E3955F30A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4030BF2D-5BA3-4165-8E86-0B8E7D080FEF}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="302">
   <si>
     <t>Description</t>
   </si>
@@ -904,9 +904,6 @@
   </si>
   <si>
     <t>Set Secondary DNS</t>
-  </si>
-  <si>
-    <t>Telnet</t>
   </si>
   <si>
     <t>Create Outgoing Connection</t>
@@ -1141,8 +1138,8 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1466,8 +1463,8 @@
   </sheetPr>
   <dimension ref="A1:AC84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2959,7 +2956,7 @@
       <c r="D54" s="3">
         <v>4</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E54" s="23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2972,16 +2969,16 @@
       <c r="D55" s="3">
         <v>5</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="23" t="s">
+      <c r="E55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="G55" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="H55" s="23" t="s">
+      <c r="H55" s="24" t="s">
         <v>274</v>
       </c>
     </row>
@@ -3333,7 +3330,7 @@
       <c r="A72" s="10"/>
       <c r="B72" s="17"/>
       <c r="C72" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D72" s="3">
         <v>17</v>
@@ -3374,32 +3371,30 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="17"/>
+      <c r="C73" t="s">
         <v>288</v>
-      </c>
-      <c r="C73" t="s">
-        <v>289</v>
       </c>
       <c r="D73" s="3">
         <v>18</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F73" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H73" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="I73" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="H73" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>293</v>
-      </c>
       <c r="J73" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>5</v>
@@ -3419,31 +3414,31 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
-      <c r="B74" s="18"/>
+      <c r="B74" s="17"/>
       <c r="C74" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D74" s="3">
         <v>19</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
-      <c r="B75" s="18"/>
+      <c r="B75" s="17"/>
       <c r="C75" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D75" s="3">
         <v>20</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>4</v>
@@ -3451,15 +3446,15 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
-      <c r="B76" s="18"/>
+      <c r="B76" s="17"/>
       <c r="C76" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D76" s="3">
         <v>21</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>4</v>
@@ -3494,15 +3489,15 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
-      <c r="B77" s="18"/>
+      <c r="B77" s="17"/>
       <c r="C77" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D77" s="3">
         <v>22</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>4</v>
@@ -3510,15 +3505,15 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
-      <c r="B78" s="18"/>
+      <c r="B78" s="17"/>
       <c r="C78" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D78" s="3">
         <v>23</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>4</v>
@@ -3529,9 +3524,9 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
-      <c r="B79" s="18"/>
+      <c r="B79" s="17"/>
       <c r="C79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D79" s="3">
         <v>24</v>
@@ -3542,9 +3537,9 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
-      <c r="B80" s="18"/>
+      <c r="B80" s="17"/>
       <c r="C80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D80" s="3">
         <v>25</v>
@@ -3585,9 +3580,9 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
-      <c r="B81" s="18"/>
+      <c r="B81" s="17"/>
       <c r="C81" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D81" s="3">
         <v>26</v>
@@ -3598,9 +3593,9 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
-      <c r="B82" s="18"/>
+      <c r="B82" s="17"/>
       <c r="C82" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D82" s="3">
         <v>27</v>
@@ -3652,13 +3647,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="E49:AC49"/>
     <mergeCell ref="A50:A84"/>
     <mergeCell ref="B51:B55"/>
     <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B72"/>
-    <mergeCell ref="B73:B82"/>
+    <mergeCell ref="B62:B82"/>
     <mergeCell ref="A2:A47"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="E1:AC1"/>

--- a/Z80ESP/Z80ESP_Commands.xlsx
+++ b/Z80ESP/Z80ESP_Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\nhyodyne\Z80ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D372D43-038E-4F64-9A61-38E3955F30A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6CD44B-B5B2-4D1A-BB72-1EAF051F3AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4030BF2D-5BA3-4165-8E86-0B8E7D080FEF}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Fonts" sheetId="5" r:id="rId2"/>
     <sheet name="VGA RESOLUTIONS" sheetId="3" r:id="rId3"/>
     <sheet name="MOUSE CURSORS" sheetId="8" r:id="rId4"/>
+    <sheet name="WiFi Status" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="312">
   <si>
     <t>Description</t>
   </si>
@@ -946,6 +947,36 @@
   </si>
   <si>
     <t>Set Hostname</t>
+  </si>
+  <si>
+    <t>    WL_IDLE_STATUS</t>
+  </si>
+  <si>
+    <t>   WL_NO_SHIELD  </t>
+  </si>
+  <si>
+    <t>    WL_NO_SSID_AVAIL  </t>
+  </si>
+  <si>
+    <t>    WL_SCAN_COMPLETED  </t>
+  </si>
+  <si>
+    <t>    WL_CONNECTED  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    WL_CONNECT_FAILED </t>
+  </si>
+  <si>
+    <t>    WL_CONNECTION_LOST</t>
+  </si>
+  <si>
+    <t>    WL_DISCONNECTED</t>
+  </si>
+  <si>
+    <t>(Connect will attempt DHCP, can be overriden manually)</t>
+  </si>
+  <si>
+    <t>(SSID and Password are retained in device flash)</t>
   </si>
 </sst>
 </file>
@@ -954,7 +985,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0.0000000000_);_(* \(#,##0.0000000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0000000000_);_(* \(#,##0.0000000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1105,6 +1136,14 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
@@ -1114,20 +1153,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1136,10 +1171,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1463,8 +1494,8 @@
   </sheetPr>
   <dimension ref="A1:AC84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,36 +1515,36 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="5"/>
@@ -1545,8 +1576,8 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
@@ -1568,15 +1599,15 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="22"/>
       <c r="C4" t="s">
         <v>218</v>
       </c>
@@ -1618,8 +1649,8 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="22"/>
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -1631,8 +1662,8 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="22"/>
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -1644,8 +1675,8 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="20"/>
       <c r="C7" t="s">
         <v>42</v>
       </c>
@@ -1660,8 +1691,8 @@
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
@@ -1684,8 +1715,8 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" t="s">
         <v>47</v>
       </c>
@@ -1700,8 +1731,8 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" t="s">
         <v>24</v>
       </c>
@@ -1713,8 +1744,8 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -1756,8 +1787,8 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="C12" t="s">
         <v>26</v>
       </c>
@@ -1769,8 +1800,8 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" t="s">
         <v>45</v>
       </c>
@@ -1782,8 +1813,8 @@
       </c>
     </row>
     <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
@@ -1827,8 +1858,8 @@
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="18"/>
       <c r="C15" t="s">
         <v>28</v>
       </c>
@@ -1910,8 +1941,8 @@
       <c r="AC15" s="3"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="18"/>
       <c r="C16" t="s">
         <v>39</v>
       </c>
@@ -1923,8 +1954,8 @@
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
@@ -1944,8 +1975,8 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
       <c r="C18" t="s">
         <v>142</v>
       </c>
@@ -1960,8 +1991,8 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
       <c r="C19" t="s">
         <v>176</v>
       </c>
@@ -1970,8 +2001,8 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
       <c r="C20" t="s">
         <v>177</v>
       </c>
@@ -2016,8 +2047,8 @@
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
       <c r="C21" t="s">
         <v>186</v>
       </c>
@@ -2083,8 +2114,8 @@
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" t="s">
         <v>187</v>
       </c>
@@ -2111,8 +2142,8 @@
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" t="s">
         <v>188</v>
       </c>
@@ -2145,8 +2176,8 @@
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
       <c r="C24" t="s">
         <v>189</v>
       </c>
@@ -2209,8 +2240,8 @@
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" t="s">
         <v>190</v>
       </c>
@@ -2243,8 +2274,8 @@
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" t="s">
         <v>191</v>
       </c>
@@ -2277,8 +2308,8 @@
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" t="s">
         <v>192</v>
       </c>
@@ -2311,8 +2342,8 @@
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" t="s">
         <v>193</v>
       </c>
@@ -2345,8 +2376,8 @@
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
       <c r="C29" t="s">
         <v>194</v>
       </c>
@@ -2376,8 +2407,8 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
       <c r="C30" t="s">
         <v>195</v>
       </c>
@@ -2410,8 +2441,8 @@
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
       <c r="C31" t="s">
         <v>196</v>
       </c>
@@ -2432,8 +2463,8 @@
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
       <c r="C32" t="s">
         <v>197</v>
       </c>
@@ -2454,8 +2485,8 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
       <c r="C33" t="s">
         <v>198</v>
       </c>
@@ -2476,8 +2507,8 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
       <c r="C34" t="s">
         <v>199</v>
       </c>
@@ -2489,8 +2520,8 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
       <c r="C35" t="s">
         <v>200</v>
       </c>
@@ -2505,8 +2536,8 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
       <c r="C36" t="s">
         <v>201</v>
       </c>
@@ -2518,8 +2549,8 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
       <c r="C37" t="s">
         <v>202</v>
       </c>
@@ -2531,8 +2562,8 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
       <c r="C38" t="s">
         <v>203</v>
       </c>
@@ -2553,8 +2584,8 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
       <c r="C39" t="s">
         <v>225</v>
       </c>
@@ -2584,8 +2615,8 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
       <c r="C40" t="s">
         <v>233</v>
       </c>
@@ -2606,8 +2637,8 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
       <c r="C41" t="s">
         <v>237</v>
       </c>
@@ -2619,8 +2650,8 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
       <c r="C42" t="s">
         <v>238</v>
       </c>
@@ -2641,8 +2672,8 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
       <c r="C43" t="s">
         <v>239</v>
       </c>
@@ -2651,8 +2682,8 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
       <c r="C44" t="s">
         <v>240</v>
       </c>
@@ -2706,8 +2737,8 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
       <c r="C45" t="s">
         <v>241</v>
       </c>
@@ -2731,8 +2762,8 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
       <c r="C46" t="s">
         <v>242</v>
       </c>
@@ -2747,7 +2778,7 @@
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
+      <c r="A47" s="16"/>
       <c r="C47" t="s">
         <v>7</v>
       </c>
@@ -2786,36 +2817,36 @@
       <c r="D49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="14"/>
-      <c r="Y49" s="14"/>
-      <c r="Z49" s="14"/>
-      <c r="AA49" s="14"/>
-      <c r="AB49" s="14"/>
-      <c r="AC49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="15"/>
+      <c r="AC49" s="15"/>
     </row>
     <row r="50" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B50" s="5"/>
@@ -2847,8 +2878,8 @@
       </c>
     </row>
     <row r="51" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11" t="s">
+      <c r="A51" s="16"/>
+      <c r="B51" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C51" t="s">
@@ -2890,10 +2921,13 @@
       <c r="O51" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="Q51" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="12"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="18"/>
       <c r="C52" t="s">
         <v>272</v>
       </c>
@@ -2935,8 +2969,8 @@
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="12"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="18"/>
       <c r="C53" t="s">
         <v>273</v>
       </c>
@@ -2946,23 +2980,26 @@
       <c r="E53" t="s">
         <v>274</v>
       </c>
+      <c r="F53" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="12"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="18"/>
       <c r="C54" t="s">
         <v>275</v>
       </c>
       <c r="D54" s="3">
         <v>4</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="E54" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="12"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="18"/>
       <c r="C55" t="s">
         <v>276</v>
       </c>
@@ -2972,19 +3009,19 @@
       <c r="E55" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="G55" s="24" t="s">
+      <c r="G55" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="H55" s="24" t="s">
+      <c r="H55" s="13" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="18" t="s">
+      <c r="A56" s="16"/>
+      <c r="B56" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C56" t="s">
@@ -3007,8 +3044,8 @@
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
       <c r="C57" t="s">
         <v>47</v>
       </c>
@@ -3023,8 +3060,8 @@
       </c>
     </row>
     <row r="58" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
       <c r="C58" t="s">
         <v>24</v>
       </c>
@@ -3036,8 +3073,8 @@
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
       <c r="C59" t="s">
         <v>25</v>
       </c>
@@ -3079,8 +3116,8 @@
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
       <c r="C60" t="s">
         <v>26</v>
       </c>
@@ -3092,8 +3129,8 @@
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
       <c r="C61" t="s">
         <v>45</v>
       </c>
@@ -3105,8 +3142,8 @@
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="18" t="s">
+      <c r="A62" s="16"/>
+      <c r="B62" s="19" t="s">
         <v>277</v>
       </c>
       <c r="C62" t="s">
@@ -3129,8 +3166,8 @@
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="17"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="20"/>
       <c r="C63" t="s">
         <v>279</v>
       </c>
@@ -3151,8 +3188,8 @@
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
-      <c r="B64" s="17"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="20"/>
       <c r="C64" t="s">
         <v>280</v>
       </c>
@@ -3173,8 +3210,8 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="B65" s="17"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="20"/>
       <c r="C65" t="s">
         <v>281</v>
       </c>
@@ -3195,8 +3232,8 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="17"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="20"/>
       <c r="C66" t="s">
         <v>282</v>
       </c>
@@ -3217,13 +3254,13 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-      <c r="B67" s="17"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="20"/>
       <c r="C67" t="s">
         <v>283</v>
       </c>
       <c r="D67" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>4</v>
@@ -3239,13 +3276,13 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="17"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="20"/>
       <c r="C68" t="s">
         <v>284</v>
       </c>
       <c r="D68" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>4</v>
@@ -3261,13 +3298,13 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="17"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="20"/>
       <c r="C69" t="s">
         <v>285</v>
       </c>
       <c r="D69" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>4</v>
@@ -3283,13 +3320,13 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="17"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="20"/>
       <c r="C70" t="s">
         <v>286</v>
       </c>
       <c r="D70" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>4</v>
@@ -3305,13 +3342,13 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="17"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="20"/>
       <c r="C71" t="s">
         <v>287</v>
       </c>
       <c r="D71" s="3">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>4</v>
@@ -3327,13 +3364,13 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="17"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="20"/>
       <c r="C72" t="s">
         <v>301</v>
       </c>
       <c r="D72" s="3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>4</v>
@@ -3370,13 +3407,13 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="17"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="20"/>
       <c r="C73" t="s">
         <v>288</v>
       </c>
       <c r="D73" s="3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>289</v>
@@ -3413,13 +3450,13 @@
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="17"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="20"/>
       <c r="C74" t="s">
         <v>290</v>
       </c>
       <c r="D74" s="3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>291</v>
@@ -3429,13 +3466,13 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
-      <c r="B75" s="17"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="20"/>
       <c r="C75" t="s">
         <v>293</v>
       </c>
       <c r="D75" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>289</v>
@@ -3445,13 +3482,13 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="17"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="20"/>
       <c r="C76" t="s">
         <v>294</v>
       </c>
       <c r="D76" s="3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>289</v>
@@ -3488,13 +3525,13 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
-      <c r="B77" s="17"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="20"/>
       <c r="C77" t="s">
         <v>295</v>
       </c>
       <c r="D77" s="3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>289</v>
@@ -3504,13 +3541,13 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-      <c r="B78" s="17"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="20"/>
       <c r="C78" t="s">
         <v>296</v>
       </c>
       <c r="D78" s="3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>289</v>
@@ -3523,26 +3560,26 @@
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
-      <c r="B79" s="17"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="20"/>
       <c r="C79" t="s">
         <v>297</v>
       </c>
       <c r="D79" s="3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="B80" s="17"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="20"/>
       <c r="C80" t="s">
         <v>298</v>
       </c>
       <c r="D80" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>4</v>
@@ -3579,26 +3616,26 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
-      <c r="B81" s="17"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="20"/>
       <c r="C81" t="s">
         <v>299</v>
       </c>
       <c r="D81" s="3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
-      <c r="B82" s="17"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="20"/>
       <c r="C82" t="s">
         <v>300</v>
       </c>
       <c r="D82" s="3">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>4</v>
@@ -3608,7 +3645,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
+      <c r="A83" s="16"/>
       <c r="B83" s="8" t="s">
         <v>220</v>
       </c>
@@ -3617,7 +3654,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
+      <c r="A84" s="16"/>
       <c r="C84" t="s">
         <v>7</v>
       </c>
@@ -3648,11 +3685,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E49:AC49"/>
-    <mergeCell ref="A50:A84"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B82"/>
     <mergeCell ref="A2:A47"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="E1:AC1"/>
@@ -3660,6 +3692,11 @@
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B17:B46"/>
     <mergeCell ref="S3:U3"/>
+    <mergeCell ref="E49:AC49"/>
+    <mergeCell ref="A50:A84"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B62:B82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="33" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -6024,8 +6061,92 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1999E0-E937-459F-943F-E7D1299CD2DE}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Z80ESP/Z80ESP_Commands.xlsx
+++ b/Z80ESP/Z80ESP_Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\nhyodyne\Z80ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6CD44B-B5B2-4D1A-BB72-1EAF051F3AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53F830B-AC45-44E1-A5DD-668A71C2B8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4030BF2D-5BA3-4165-8E86-0B8E7D080FEF}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="310">
   <si>
     <t>Description</t>
   </si>
@@ -913,9 +913,6 @@
     <t>Conn#</t>
   </si>
   <si>
-    <t>Set Incomming Port</t>
-  </si>
-  <si>
     <t>Port</t>
   </si>
   <si>
@@ -934,18 +931,6 @@
     <t>Chars in Buffer from Connection#</t>
   </si>
   <si>
-    <t>Out Byte to Incomming Port</t>
-  </si>
-  <si>
-    <t>Out String to Incomming Port</t>
-  </si>
-  <si>
-    <t>In Byte From Incomming Port</t>
-  </si>
-  <si>
-    <t>Chars in Buffer from Incomming Port</t>
-  </si>
-  <si>
     <t>Set Hostname</t>
   </si>
   <si>
@@ -977,6 +962,15 @@
   </si>
   <si>
     <t>(SSID and Password are retained in device flash)</t>
+  </si>
+  <si>
+    <t>Set Incoming Port</t>
+  </si>
+  <si>
+    <t>(0 is for incoming connection, 1-63 is outgoing)</t>
+  </si>
+  <si>
+    <t>(sets listen port for connection 0)</t>
   </si>
 </sst>
 </file>
@@ -1492,10 +1486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AC84"/>
+  <dimension ref="A1:AC80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C73" sqref="A73:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2922,7 +2916,7 @@
         <v>6</v>
       </c>
       <c r="Q51" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
@@ -2981,7 +2975,7 @@
         <v>274</v>
       </c>
       <c r="F53" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
@@ -3209,7 +3203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="20"/>
       <c r="C65" t="s">
@@ -3231,7 +3225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="20"/>
       <c r="C66" t="s">
@@ -3253,7 +3247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="20"/>
       <c r="C67" t="s">
@@ -3275,7 +3269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="20"/>
       <c r="C68" t="s">
@@ -3297,7 +3291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="20"/>
       <c r="C69" t="s">
@@ -3319,7 +3313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="20"/>
       <c r="C70" t="s">
@@ -3341,7 +3335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="20"/>
       <c r="C71" t="s">
@@ -3363,11 +3357,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="20"/>
       <c r="C72" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D72" s="3">
         <v>22</v>
@@ -3406,7 +3400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="B73" s="20"/>
       <c r="C73" t="s">
@@ -3419,19 +3413,19 @@
         <v>289</v>
       </c>
       <c r="F73" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H73" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="I73" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H73" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>292</v>
-      </c>
       <c r="J73" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>5</v>
@@ -3448,28 +3442,34 @@
       <c r="O73" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q73" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="20"/>
       <c r="C74" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="D74" s="3">
         <v>24</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="H74" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="20"/>
       <c r="C75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D75" s="3">
         <v>25</v>
@@ -3481,11 +3481,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="B76" s="20"/>
       <c r="C76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D76" s="3">
         <v>26</v>
@@ -3524,11 +3524,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="20"/>
       <c r="C77" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D77" s="3">
         <v>27</v>
@@ -3540,11 +3540,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="20"/>
       <c r="C78" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D78" s="3">
         <v>28</v>
@@ -3559,127 +3559,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
-      <c r="B79" s="20"/>
-      <c r="C79" t="s">
-        <v>297</v>
-      </c>
-      <c r="D79" s="3">
-        <v>29</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B79" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
-      <c r="B80" s="20"/>
       <c r="C80" t="s">
-        <v>298</v>
+        <v>7</v>
       </c>
       <c r="D80" s="3">
-        <v>30</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N80" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O80" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="16"/>
-      <c r="B81" s="20"/>
-      <c r="C81" t="s">
-        <v>299</v>
-      </c>
-      <c r="D81" s="3">
-        <v>31</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
-      <c r="B82" s="20"/>
-      <c r="C82" t="s">
-        <v>300</v>
-      </c>
-      <c r="D82" s="3">
-        <v>32</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
-      <c r="B83" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
-      <c r="C84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="3">
         <v>255</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F80" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="G80" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="H80" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="I80" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J84" s="4" t="s">
+      <c r="J80" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="K84" s="4" t="s">
+      <c r="K80" s="4" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3693,10 +3608,10 @@
     <mergeCell ref="B17:B46"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="E49:AC49"/>
-    <mergeCell ref="A50:A84"/>
+    <mergeCell ref="A50:A80"/>
     <mergeCell ref="B51:B55"/>
     <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B62:B82"/>
+    <mergeCell ref="B62:B78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="33" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -6086,7 +6001,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B1" s="9">
         <v>255</v>
@@ -6094,7 +6009,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B2" s="9">
         <v>0</v>
@@ -6102,7 +6017,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
@@ -6110,7 +6025,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B4" s="9">
         <v>2</v>
@@ -6118,7 +6033,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B5" s="9">
         <v>3</v>
@@ -6126,7 +6041,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B6" s="9">
         <v>4</v>
@@ -6134,7 +6049,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B7" s="9">
         <v>5</v>
@@ -6142,7 +6057,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B8" s="9">
         <v>6</v>

--- a/Z80ESP/Z80ESP_Commands.xlsx
+++ b/Z80ESP/Z80ESP_Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\nhyodyne\Z80ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53F830B-AC45-44E1-A5DD-668A71C2B8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34492F82-5BC3-488C-93DE-D8AE80DB4350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4030BF2D-5BA3-4165-8E86-0B8E7D080FEF}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="317">
   <si>
     <t>Description</t>
   </si>
@@ -971,6 +971,27 @@
   </si>
   <si>
     <t>(sets listen port for connection 0)</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>GetMouse</t>
+  </si>
+  <si>
+    <t>Wheel Delta</t>
+  </si>
+  <si>
+    <t>left btn</t>
+  </si>
+  <si>
+    <t>middle btn</t>
+  </si>
+  <si>
+    <t>right btn</t>
   </si>
 </sst>
 </file>
@@ -981,7 +1002,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0000000000_);_(* \(#,##0.0000000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -999,13 +1020,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1048,7 +1062,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1063,11 +1077,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -1104,73 +1113,73 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Comma" xfId="4" builtinId="3"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1488,8 +1497,8 @@
   </sheetPr>
   <dimension ref="A1:AC80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C73" sqref="A73:XFD73"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,36 +1518,36 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="5"/>
@@ -1570,8 +1579,8 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
@@ -1593,15 +1602,15 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="21"/>
       <c r="C4" t="s">
         <v>218</v>
       </c>
@@ -1643,8 +1652,8 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="21"/>
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -1656,8 +1665,8 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="21"/>
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -1669,8 +1678,8 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="19"/>
       <c r="C7" t="s">
         <v>42</v>
       </c>
@@ -1685,8 +1694,8 @@
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
@@ -1709,8 +1718,8 @@
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" t="s">
         <v>47</v>
       </c>
@@ -1725,8 +1734,8 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
       <c r="C10" t="s">
         <v>24</v>
       </c>
@@ -1738,8 +1747,8 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
       <c r="C11" t="s">
         <v>25</v>
       </c>
@@ -1781,8 +1790,8 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
       <c r="C12" t="s">
         <v>26</v>
       </c>
@@ -1794,8 +1803,8 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
       <c r="C13" t="s">
         <v>45</v>
       </c>
@@ -1807,8 +1816,8 @@
       </c>
     </row>
     <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
@@ -1852,8 +1861,8 @@
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
       <c r="C15" t="s">
         <v>28</v>
       </c>
@@ -1935,8 +1944,8 @@
       <c r="AC15" s="3"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="17"/>
       <c r="C16" t="s">
         <v>39</v>
       </c>
@@ -1948,8 +1957,8 @@
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
@@ -1969,8 +1978,8 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
       <c r="C18" t="s">
         <v>142</v>
       </c>
@@ -1985,8 +1994,8 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
       <c r="C19" t="s">
         <v>176</v>
       </c>
@@ -1995,8 +2004,8 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
       <c r="C20" t="s">
         <v>177</v>
       </c>
@@ -2041,8 +2050,8 @@
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
       <c r="C21" t="s">
         <v>186</v>
       </c>
@@ -2108,8 +2117,8 @@
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
       <c r="C22" t="s">
         <v>187</v>
       </c>
@@ -2136,8 +2145,8 @@
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" t="s">
         <v>188</v>
       </c>
@@ -2170,8 +2179,8 @@
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" t="s">
         <v>189</v>
       </c>
@@ -2234,8 +2243,8 @@
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
       <c r="C25" t="s">
         <v>190</v>
       </c>
@@ -2268,8 +2277,8 @@
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
       <c r="C26" t="s">
         <v>191</v>
       </c>
@@ -2302,8 +2311,8 @@
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
       <c r="C27" t="s">
         <v>192</v>
       </c>
@@ -2336,8 +2345,8 @@
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
       <c r="C28" t="s">
         <v>193</v>
       </c>
@@ -2370,8 +2379,8 @@
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
       <c r="C29" t="s">
         <v>194</v>
       </c>
@@ -2401,8 +2410,8 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
       <c r="C30" t="s">
         <v>195</v>
       </c>
@@ -2435,8 +2444,8 @@
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
       <c r="C31" t="s">
         <v>196</v>
       </c>
@@ -2457,8 +2466,8 @@
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
       <c r="C32" t="s">
         <v>197</v>
       </c>
@@ -2479,8 +2488,8 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
       <c r="C33" t="s">
         <v>198</v>
       </c>
@@ -2501,8 +2510,8 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
       <c r="C34" t="s">
         <v>199</v>
       </c>
@@ -2514,8 +2523,8 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
       <c r="C35" t="s">
         <v>200</v>
       </c>
@@ -2530,8 +2539,8 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
       <c r="C36" t="s">
         <v>201</v>
       </c>
@@ -2543,8 +2552,8 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
       <c r="C37" t="s">
         <v>202</v>
       </c>
@@ -2556,8 +2565,8 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
       <c r="C38" t="s">
         <v>203</v>
       </c>
@@ -2578,8 +2587,8 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
       <c r="C39" t="s">
         <v>225</v>
       </c>
@@ -2609,8 +2618,8 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
       <c r="C40" t="s">
         <v>233</v>
       </c>
@@ -2631,8 +2640,8 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
       <c r="C41" t="s">
         <v>237</v>
       </c>
@@ -2644,8 +2653,8 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
       <c r="C42" t="s">
         <v>238</v>
       </c>
@@ -2666,8 +2675,8 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
       <c r="C43" t="s">
         <v>239</v>
       </c>
@@ -2676,8 +2685,8 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
       <c r="C44" t="s">
         <v>240</v>
       </c>
@@ -2731,8 +2740,8 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
       <c r="C45" t="s">
         <v>241</v>
       </c>
@@ -2756,8 +2765,8 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
       <c r="C46" t="s">
         <v>242</v>
       </c>
@@ -2772,7 +2781,7 @@
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
+      <c r="A47" s="15"/>
       <c r="C47" t="s">
         <v>7</v>
       </c>
@@ -2811,36 +2820,36 @@
       <c r="D49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="15"/>
-      <c r="V49" s="15"/>
-      <c r="W49" s="15"/>
-      <c r="X49" s="15"/>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="15"/>
-      <c r="AA49" s="15"/>
-      <c r="AB49" s="15"/>
-      <c r="AC49" s="15"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="14"/>
+      <c r="AC49" s="14"/>
     </row>
     <row r="50" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B50" s="5"/>
@@ -2872,8 +2881,8 @@
       </c>
     </row>
     <row r="51" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17" t="s">
+      <c r="A51" s="15"/>
+      <c r="B51" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C51" t="s">
@@ -2920,8 +2929,8 @@
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="18"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="17"/>
       <c r="C52" t="s">
         <v>272</v>
       </c>
@@ -2963,8 +2972,8 @@
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="18"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="17"/>
       <c r="C53" t="s">
         <v>273</v>
       </c>
@@ -2979,21 +2988,21 @@
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="18"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="17"/>
       <c r="C54" t="s">
         <v>275</v>
       </c>
       <c r="D54" s="3">
         <v>4</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="18"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="17"/>
       <c r="C55" t="s">
         <v>276</v>
       </c>
@@ -3003,19 +3012,19 @@
       <c r="E55" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="G55" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="H55" s="12" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="19" t="s">
+      <c r="A56" s="15"/>
+      <c r="B56" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C56" t="s">
@@ -3038,8 +3047,8 @@
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
       <c r="C57" t="s">
         <v>47</v>
       </c>
@@ -3054,8 +3063,8 @@
       </c>
     </row>
     <row r="58" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
       <c r="C58" t="s">
         <v>24</v>
       </c>
@@ -3067,8 +3076,8 @@
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
       <c r="C59" t="s">
         <v>25</v>
       </c>
@@ -3110,8 +3119,8 @@
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
       <c r="C60" t="s">
         <v>26</v>
       </c>
@@ -3123,8 +3132,8 @@
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
       <c r="C61" t="s">
         <v>45</v>
       </c>
@@ -3136,8 +3145,8 @@
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="19" t="s">
+      <c r="A62" s="15"/>
+      <c r="B62" s="18" t="s">
         <v>277</v>
       </c>
       <c r="C62" t="s">
@@ -3160,8 +3169,8 @@
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
-      <c r="B63" s="20"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="19"/>
       <c r="C63" t="s">
         <v>279</v>
       </c>
@@ -3182,8 +3191,8 @@
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="20"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="19"/>
       <c r="C64" t="s">
         <v>280</v>
       </c>
@@ -3204,8 +3213,8 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
-      <c r="B65" s="20"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="19"/>
       <c r="C65" t="s">
         <v>281</v>
       </c>
@@ -3226,8 +3235,8 @@
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
-      <c r="B66" s="20"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="19"/>
       <c r="C66" t="s">
         <v>282</v>
       </c>
@@ -3248,8 +3257,8 @@
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
-      <c r="B67" s="20"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="19"/>
       <c r="C67" t="s">
         <v>283</v>
       </c>
@@ -3270,8 +3279,8 @@
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
-      <c r="B68" s="20"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="19"/>
       <c r="C68" t="s">
         <v>284</v>
       </c>
@@ -3292,8 +3301,8 @@
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
-      <c r="B69" s="20"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="19"/>
       <c r="C69" t="s">
         <v>285</v>
       </c>
@@ -3314,8 +3323,8 @@
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
-      <c r="B70" s="20"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="19"/>
       <c r="C70" t="s">
         <v>286</v>
       </c>
@@ -3336,8 +3345,8 @@
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
-      <c r="B71" s="20"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="19"/>
       <c r="C71" t="s">
         <v>287</v>
       </c>
@@ -3358,8 +3367,8 @@
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
-      <c r="B72" s="20"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="19"/>
       <c r="C72" t="s">
         <v>296</v>
       </c>
@@ -3401,8 +3410,8 @@
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="16"/>
-      <c r="B73" s="20"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="19"/>
       <c r="C73" t="s">
         <v>288</v>
       </c>
@@ -3447,8 +3456,8 @@
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
-      <c r="B74" s="20"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="19"/>
       <c r="C74" t="s">
         <v>307</v>
       </c>
@@ -3466,8 +3475,8 @@
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="16"/>
-      <c r="B75" s="20"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="19"/>
       <c r="C75" t="s">
         <v>292</v>
       </c>
@@ -3482,8 +3491,8 @@
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
-      <c r="B76" s="20"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="19"/>
       <c r="C76" t="s">
         <v>293</v>
       </c>
@@ -3525,8 +3534,8 @@
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="20"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="19"/>
       <c r="C77" t="s">
         <v>294</v>
       </c>
@@ -3541,8 +3550,8 @@
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
-      <c r="B78" s="20"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="19"/>
       <c r="C78" t="s">
         <v>295</v>
       </c>
@@ -3560,16 +3569,43 @@
       </c>
     </row>
     <row r="79" spans="1:17" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="16"/>
+      <c r="A79" s="15"/>
       <c r="B79" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>220</v>
+      <c r="C79" t="s">
+        <v>312</v>
+      </c>
+      <c r="D79" s="3">
+        <v>29</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H79" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
+      <c r="A80" s="15"/>
       <c r="C80" t="s">
         <v>7</v>
       </c>
@@ -3628,7 +3664,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3641,7 +3677,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -3653,7 +3689,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -3665,7 +3701,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -3677,7 +3713,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -3689,7 +3725,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -3701,7 +3737,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -3713,7 +3749,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -3725,7 +3761,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -3737,7 +3773,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -3749,7 +3785,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -3761,7 +3797,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -3773,7 +3809,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -3785,7 +3821,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -3797,7 +3833,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -3809,7 +3845,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -3821,7 +3857,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -3833,7 +3869,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -3845,7 +3881,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -3857,7 +3893,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -3869,7 +3905,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -3881,7 +3917,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -3893,7 +3929,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -3905,7 +3941,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -3917,7 +3953,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -3929,7 +3965,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -3941,7 +3977,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -3953,7 +3989,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -3965,7 +4001,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -3977,7 +4013,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -3989,7 +4025,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -4001,7 +4037,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -5818,7 +5854,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="77.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="77.28515625" style="7" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -5827,7 +5863,7 @@
       <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>250</v>
       </c>
     </row>
@@ -5835,7 +5871,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5843,7 +5879,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5851,7 +5887,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>253</v>
       </c>
     </row>
@@ -5859,7 +5895,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>254</v>
       </c>
     </row>
@@ -5867,7 +5903,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5875,7 +5911,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5883,7 +5919,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5891,7 +5927,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5899,7 +5935,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>259</v>
       </c>
     </row>
@@ -5907,7 +5943,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5915,7 +5951,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5923,7 +5959,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5931,7 +5967,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5939,7 +5975,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5947,7 +5983,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5955,7 +5991,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5963,7 +5999,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>267</v>
       </c>
     </row>
@@ -5971,13 +6007,13 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5995,71 +6031,71 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="9" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="29.42578125" style="7" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="7">
         <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>6</v>
       </c>
     </row>
